--- a/base_1D.xlsx
+++ b/base_1D.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9499a5008a75921e/Competição/itau/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9499a5008a75921e/Documentos/GitHub/retorno_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{2A05CEB0-1E67-4B92-BB94-C7F0683B0E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAC683B7-C965-4494-AD60-42F24D4BB54D}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{2A05CEB0-1E67-4B92-BB94-C7F0683B0E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6A99F92-3849-4089-866A-D829F41780D1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1386D7EC-1368-4280-AD0F-8E95AA932D8B}"/>
   </bookViews>
@@ -400,14 +400,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC1B948-E875-4B53-926D-324E1FDA9E6B}">
   <dimension ref="A1:D8110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A677" workbookViewId="0">
-      <selection activeCell="A677" sqref="A677"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -418,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -432,10 +432,10 @@
         <v>110300</v>
       </c>
       <c r="C2">
+        <v>4340</v>
+      </c>
+      <c r="D2">
         <v>5501</v>
-      </c>
-      <c r="D2">
-        <v>4340</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -446,10 +446,10 @@
         <v>110400</v>
       </c>
       <c r="C3">
+        <v>4299.5</v>
+      </c>
+      <c r="D3">
         <v>5481</v>
-      </c>
-      <c r="D3">
-        <v>4299.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -460,10 +460,10 @@
         <v>113120</v>
       </c>
       <c r="C4">
+        <v>4355</v>
+      </c>
+      <c r="D4">
         <v>5387</v>
-      </c>
-      <c r="D4">
-        <v>4355</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -474,10 +474,10 @@
         <v>110690</v>
       </c>
       <c r="C5">
+        <v>4301</v>
+      </c>
+      <c r="D5">
         <v>5467.5</v>
-      </c>
-      <c r="D5">
-        <v>4301</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -488,10 +488,10 @@
         <v>111140</v>
       </c>
       <c r="C6">
+        <v>4362</v>
+      </c>
+      <c r="D6">
         <v>5436.5</v>
-      </c>
-      <c r="D6">
-        <v>4362</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -502,10 +502,10 @@
         <v>110020</v>
       </c>
       <c r="C7">
+        <v>4350</v>
+      </c>
+      <c r="D7">
         <v>5455.08</v>
-      </c>
-      <c r="D7">
-        <v>4350</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,10 +516,10 @@
         <v>113400</v>
       </c>
       <c r="C8">
+        <v>4431.5</v>
+      </c>
+      <c r="D8">
         <v>5419.42</v>
-      </c>
-      <c r="D8">
-        <v>4431.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,10 +530,10 @@
         <v>113750</v>
       </c>
       <c r="C9">
+        <v>4448.5</v>
+      </c>
+      <c r="D9">
         <v>5366.69</v>
-      </c>
-      <c r="D9">
-        <v>4448.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -544,10 +544,10 @@
         <v>114010</v>
       </c>
       <c r="C10">
+        <v>4444</v>
+      </c>
+      <c r="D10">
         <v>5335.05</v>
-      </c>
-      <c r="D10">
-        <v>4444</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -558,10 +558,10 @@
         <v>112435</v>
       </c>
       <c r="C11">
+        <v>4390</v>
+      </c>
+      <c r="D11">
         <v>5321.99</v>
-      </c>
-      <c r="D11">
-        <v>4390</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -572,10 +572,10 @@
         <v>110240</v>
       </c>
       <c r="C12">
+        <v>4347.25</v>
+      </c>
+      <c r="D12">
         <v>5300.9</v>
-      </c>
-      <c r="D12">
-        <v>4347.25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,10 +586,10 @@
         <v>109710</v>
       </c>
       <c r="C13">
+        <v>4344</v>
+      </c>
+      <c r="D13">
         <v>5359.66</v>
-      </c>
-      <c r="D13">
-        <v>4344</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,10 +600,10 @@
         <v>111205</v>
       </c>
       <c r="C14">
+        <v>4417</v>
+      </c>
+      <c r="D14">
         <v>5320.99</v>
-      </c>
-      <c r="D14">
-        <v>4417</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,10 +614,10 @@
         <v>114410</v>
       </c>
       <c r="C15">
+        <v>4465.75</v>
+      </c>
+      <c r="D15">
         <v>5288.35</v>
-      </c>
-      <c r="D15">
-        <v>4465.75</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,10 +628,10 @@
         <v>115600</v>
       </c>
       <c r="C16">
+        <v>4479.7299999999996</v>
+      </c>
+      <c r="D16">
         <v>5264.74</v>
-      </c>
-      <c r="D16">
-        <v>4479.7299999999996</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -642,10 +642,10 @@
         <v>116900</v>
       </c>
       <c r="C17">
+        <v>4438.55</v>
+      </c>
+      <c r="D17">
         <v>5286.34</v>
-      </c>
-      <c r="D17">
-        <v>4438.55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,10 +656,10 @@
         <v>116680</v>
       </c>
       <c r="C18">
+        <v>4467.25</v>
+      </c>
+      <c r="D18">
         <v>5256.71</v>
-      </c>
-      <c r="D18">
-        <v>4467.25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,10 +670,10 @@
         <v>114680</v>
       </c>
       <c r="C19">
+        <v>4459.26</v>
+      </c>
+      <c r="D19">
         <v>5291.36</v>
-      </c>
-      <c r="D19">
-        <v>4459.26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,10 +684,10 @@
         <v>117080</v>
       </c>
       <c r="C20">
+        <v>4486.46</v>
+      </c>
+      <c r="D20">
         <v>5249.68</v>
-      </c>
-      <c r="D20">
-        <v>4486.46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,10 +698,10 @@
         <v>113830</v>
       </c>
       <c r="C21">
+        <v>4502.1899999999996</v>
+      </c>
+      <c r="D21">
         <v>5358.66</v>
-      </c>
-      <c r="D21">
-        <v>4502.1899999999996</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
         <v>118370</v>
       </c>
       <c r="C22">
+        <v>4539.37</v>
+      </c>
+      <c r="D22">
         <v>5212.01</v>
-      </c>
-      <c r="D22">
-        <v>4539.37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,10 +726,10 @@
         <v>116855</v>
       </c>
       <c r="C23">
+        <v>4533.63</v>
+      </c>
+      <c r="D23">
         <v>5240.13</v>
-      </c>
-      <c r="D23">
-        <v>4533.63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,10 +740,10 @@
         <v>117160</v>
       </c>
       <c r="C24">
+        <v>4532.38</v>
+      </c>
+      <c r="D24">
         <v>5225.07</v>
-      </c>
-      <c r="D24">
-        <v>4532.38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,10 +754,10 @@
         <v>119180</v>
       </c>
       <c r="C25">
+        <v>4515.16</v>
+      </c>
+      <c r="D25">
         <v>5230.59</v>
-      </c>
-      <c r="D25">
-        <v>4515.16</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,10 +768,10 @@
         <v>119200</v>
       </c>
       <c r="C26">
+        <v>4524.8999999999996</v>
+      </c>
+      <c r="D26">
         <v>5194.93</v>
-      </c>
-      <c r="D26">
-        <v>4524.8999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,10 +782,10 @@
         <v>120630</v>
       </c>
       <c r="C27">
+        <v>4525.6499999999996</v>
+      </c>
+      <c r="D27">
         <v>5231.6000000000004</v>
-      </c>
-      <c r="D27">
-        <v>4525.6499999999996</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,10 +796,10 @@
         <v>120850</v>
       </c>
       <c r="C28">
+        <v>4501.9399999999996</v>
+      </c>
+      <c r="D28">
         <v>5252.78</v>
-      </c>
-      <c r="D28">
-        <v>4501.9399999999996</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -810,10 +810,10 @@
         <v>119575</v>
       </c>
       <c r="C29">
+        <v>4465.25</v>
+      </c>
+      <c r="D29">
         <v>5314.33</v>
-      </c>
-      <c r="D29">
-        <v>4465.25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>121390</v>
       </c>
       <c r="C30">
+        <v>4485.72</v>
+      </c>
+      <c r="D30">
         <v>5264.89</v>
-      </c>
-      <c r="D30">
-        <v>4485.72</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,10 +838,10 @@
         <v>121275</v>
       </c>
       <c r="C31">
+        <v>4479.2299999999996</v>
+      </c>
+      <c r="D31">
         <v>5303.74</v>
-      </c>
-      <c r="D31">
-        <v>4479.2299999999996</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>118060</v>
       </c>
       <c r="C32">
+        <v>4476.9799999999996</v>
+      </c>
+      <c r="D32">
         <v>5435.41</v>
-      </c>
-      <c r="D32">
-        <v>4476.9799999999996</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -866,10 +866,10 @@
         <v>118935</v>
       </c>
       <c r="C33">
+        <v>4437.3</v>
+      </c>
+      <c r="D33">
         <v>5431.88</v>
-      </c>
-      <c r="D33">
-        <v>4437.3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,10 +880,10 @@
         <v>118040</v>
       </c>
       <c r="C34">
+        <v>4395.37</v>
+      </c>
+      <c r="D34">
         <v>5470.22</v>
-      </c>
-      <c r="D34">
-        <v>4395.37</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -894,10 +894,10 @@
         <v>116960</v>
       </c>
       <c r="C35">
+        <v>4381.3999999999996</v>
+      </c>
+      <c r="D35">
         <v>5448.02</v>
-      </c>
-      <c r="D35">
-        <v>4381.3999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -908,10 +908,10 @@
         <v>118195</v>
       </c>
       <c r="C36">
+        <v>4434.3</v>
+      </c>
+      <c r="D36">
         <v>5354.69</v>
-      </c>
-      <c r="D36">
-        <v>4434.3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -922,10 +922,10 @@
         <v>120697.12</v>
       </c>
       <c r="C37">
+        <v>4468.74</v>
+      </c>
+      <c r="D37">
         <v>5318.37</v>
-      </c>
-      <c r="D37">
-        <v>4468.74</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -936,10 +936,10 @@
         <v>122276.08</v>
       </c>
       <c r="C38">
+        <v>4459.01</v>
+      </c>
+      <c r="D38">
         <v>5309.29</v>
-      </c>
-      <c r="D38">
-        <v>4459.01</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -950,10 +950,10 @@
         <v>121776.67</v>
       </c>
       <c r="C39">
+        <v>4451.5200000000004</v>
+      </c>
+      <c r="D39">
         <v>5314.33</v>
-      </c>
-      <c r="D39">
-        <v>4451.5200000000004</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -964,10 +964,10 @@
         <v>123219.42</v>
       </c>
       <c r="C40">
+        <v>4439.8</v>
+      </c>
+      <c r="D40">
         <v>5289.61</v>
-      </c>
-      <c r="D40">
-        <v>4439.8</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -978,10 +978,10 @@
         <v>123542.28</v>
       </c>
       <c r="C41">
+        <v>4426.07</v>
+      </c>
+      <c r="D41">
         <v>5251.78</v>
-      </c>
-      <c r="D41">
-        <v>4426.07</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -992,10 +992,10 @@
         <v>124112.32000000001</v>
       </c>
       <c r="C42">
+        <v>4415.09</v>
+      </c>
+      <c r="D42">
         <v>5297.18</v>
-      </c>
-      <c r="D42">
-        <v>4415.09</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1006,10 +1006,10 @@
         <v>124167.81</v>
       </c>
       <c r="C43">
+        <v>4427.82</v>
+      </c>
+      <c r="D43">
         <v>5295.67</v>
-      </c>
-      <c r="D43">
-        <v>4427.82</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1020,10 +1020,10 @@
         <v>122180.23</v>
       </c>
       <c r="C44">
+        <v>4417.58</v>
+      </c>
+      <c r="D44">
         <v>5316.35</v>
-      </c>
-      <c r="D44">
-        <v>4417.58</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1034,10 +1034,10 @@
         <v>123108.44</v>
       </c>
       <c r="C45">
+        <v>4396.12</v>
+      </c>
+      <c r="D45">
         <v>5235.13</v>
-      </c>
-      <c r="D45">
-        <v>4396.12</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1048,10 +1048,10 @@
         <v>124329.23</v>
       </c>
       <c r="C46">
+        <v>4407.3500000000004</v>
+      </c>
+      <c r="D46">
         <v>5265.9</v>
-      </c>
-      <c r="D46">
-        <v>4407.3500000000004</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>124278.79</v>
       </c>
       <c r="C47">
+        <v>4384.8900000000003</v>
+      </c>
+      <c r="D47">
         <v>5237.1400000000003</v>
-      </c>
-      <c r="D47">
-        <v>4384.8900000000003</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1076,10 +1076,10 @@
         <v>123431.3</v>
       </c>
       <c r="C48">
+        <v>4390.38</v>
+      </c>
+      <c r="D48">
         <v>5281.04</v>
-      </c>
-      <c r="D48">
-        <v>4390.38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,10 +1090,10 @@
         <v>126609.39</v>
       </c>
       <c r="C49">
+        <v>4393.87</v>
+      </c>
+      <c r="D49">
         <v>5146.84</v>
-      </c>
-      <c r="D49">
-        <v>4393.87</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1104,10 +1104,10 @@
         <v>127431.66</v>
       </c>
       <c r="C50">
+        <v>4389.88</v>
+      </c>
+      <c r="D50">
         <v>5187.87</v>
-      </c>
-      <c r="D50">
-        <v>4389.88</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1118,10 +1118,10 @@
         <v>125877.93</v>
       </c>
       <c r="C51">
+        <v>4386.6400000000003</v>
+      </c>
+      <c r="D51">
         <v>5240.05</v>
-      </c>
-      <c r="D51">
-        <v>4386.6400000000003</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1132,10 +1132,10 @@
         <v>127340.86</v>
       </c>
       <c r="C52">
+        <v>4410.8500000000004</v>
+      </c>
+      <c r="D52">
         <v>5248.16</v>
-      </c>
-      <c r="D52">
-        <v>4410.8500000000004</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,10 +1146,10 @@
         <v>126099.89</v>
       </c>
       <c r="C53">
+        <v>4396.37</v>
+      </c>
+      <c r="D53">
         <v>5273.49</v>
-      </c>
-      <c r="D53">
-        <v>4396.37</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1160,10 +1160,10 @@
         <v>127704.07</v>
       </c>
       <c r="C54">
+        <v>4367.17</v>
+      </c>
+      <c r="D54">
         <v>5277.03</v>
-      </c>
-      <c r="D54">
-        <v>4367.17</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1174,10 +1174,10 @@
         <v>127552.73</v>
       </c>
       <c r="C55">
+        <v>4350.45</v>
+      </c>
+      <c r="D55">
         <v>5261.33</v>
-      </c>
-      <c r="D55">
-        <v>4350.45</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1188,10 +1188,10 @@
         <v>126700.2</v>
       </c>
       <c r="C56">
+        <v>4313.0200000000004</v>
+      </c>
+      <c r="D56">
         <v>5297.29</v>
-      </c>
-      <c r="D56">
-        <v>4313.0200000000004</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1202,10 +1202,10 @@
         <v>126175.56</v>
       </c>
       <c r="C57">
+        <v>4257.6099999999997</v>
+      </c>
+      <c r="D57">
         <v>5327.18</v>
-      </c>
-      <c r="D57">
-        <v>4257.6099999999997</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1216,10 +1216,10 @@
         <v>127583</v>
       </c>
       <c r="C58">
+        <v>4319.5</v>
+      </c>
+      <c r="D58">
         <v>5190.41</v>
-      </c>
-      <c r="D58">
-        <v>4319.5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,10 +1230,10 @@
         <v>129187.19</v>
       </c>
       <c r="C59">
+        <v>4334.2299999999996</v>
+      </c>
+      <c r="D59">
         <v>5190.41</v>
-      </c>
-      <c r="D59">
-        <v>4334.2299999999996</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1244,10 +1244,10 @@
         <v>130150.7</v>
       </c>
       <c r="C60">
+        <v>4370.17</v>
+      </c>
+      <c r="D60">
         <v>5148.87</v>
-      </c>
-      <c r="D60">
-        <v>4370.17</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1258,10 +1258,10 @@
         <v>129969.1</v>
       </c>
       <c r="C61">
+        <v>4360.43</v>
+      </c>
+      <c r="D61">
         <v>5242.08</v>
-      </c>
-      <c r="D61">
-        <v>4360.43</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,10 +1272,10 @@
         <v>129646.24</v>
       </c>
       <c r="C62">
+        <v>4376.6499999999996</v>
+      </c>
+      <c r="D62">
         <v>5251.2</v>
-      </c>
-      <c r="D62">
-        <v>4376.6499999999996</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,10 +1286,10 @@
         <v>126821.27</v>
       </c>
       <c r="C63">
+        <v>4311.5200000000004</v>
+      </c>
+      <c r="D63">
         <v>5341.37</v>
-      </c>
-      <c r="D63">
-        <v>4311.5200000000004</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,10 +1300,10 @@
         <v>128531.39</v>
       </c>
       <c r="C64">
+        <v>4346.71</v>
+      </c>
+      <c r="D64">
         <v>5315.53</v>
-      </c>
-      <c r="D64">
-        <v>4346.71</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1314,10 +1314,10 @@
         <v>126478.23</v>
       </c>
       <c r="C65">
+        <v>4326.99</v>
+      </c>
+      <c r="D65">
         <v>5281.08</v>
-      </c>
-      <c r="D65">
-        <v>4326.99</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1328,10 +1328,10 @@
         <v>128839.11</v>
       </c>
       <c r="C66">
+        <v>4334.9799999999996</v>
+      </c>
+      <c r="D66">
         <v>5173.6899999999996</v>
-      </c>
-      <c r="D66">
-        <v>4334.9799999999996</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1342,10 +1342,10 @@
         <v>129565.53</v>
       </c>
       <c r="C67">
+        <v>4338.47</v>
+      </c>
+      <c r="D67">
         <v>5141.2700000000004</v>
-      </c>
-      <c r="D67">
-        <v>4338.47</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1356,10 +1356,10 @@
         <v>127204.66</v>
       </c>
       <c r="C68">
+        <v>4307.03</v>
+      </c>
+      <c r="D68">
         <v>5128.1000000000004</v>
-      </c>
-      <c r="D68">
-        <v>4307.03</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1370,10 +1370,10 @@
         <v>128117.73</v>
       </c>
       <c r="C69">
+        <v>4292.05</v>
+      </c>
+      <c r="D69">
         <v>5052.62</v>
-      </c>
-      <c r="D69">
-        <v>4292.05</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1384,10 +1384,10 @@
         <v>128914.78</v>
       </c>
       <c r="C70">
+        <v>4280.82</v>
+      </c>
+      <c r="D70">
         <v>5035.3900000000003</v>
-      </c>
-      <c r="D70">
-        <v>4280.82</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1398,10 +1398,10 @@
         <v>129141.78</v>
       </c>
       <c r="C71">
+        <v>4282.57</v>
+      </c>
+      <c r="D71">
         <v>5007.46</v>
-      </c>
-      <c r="D71">
-        <v>4282.57</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1412,10 +1412,10 @@
         <v>129288.08</v>
       </c>
       <c r="C72">
+        <v>4270.59</v>
+      </c>
+      <c r="D72">
         <v>5015.07</v>
-      </c>
-      <c r="D72">
-        <v>4270.59</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1426,10 +1426,10 @@
         <v>131285.74</v>
       </c>
       <c r="C73">
+        <v>4262.3500000000004</v>
+      </c>
+      <c r="D73">
         <v>4996.79</v>
-      </c>
-      <c r="D73">
-        <v>4262.3500000000004</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1440,10 +1440,10 @@
         <v>130392.85</v>
       </c>
       <c r="C74">
+        <v>4235.1499999999996</v>
+      </c>
+      <c r="D74">
         <v>5049.1099999999997</v>
-      </c>
-      <c r="D74">
-        <v>4235.1499999999996</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1454,10 +1454,10 @@
         <v>130917.48</v>
       </c>
       <c r="C75">
+        <v>4242.6400000000003</v>
+      </c>
+      <c r="D75">
         <v>5039.96</v>
-      </c>
-      <c r="D75">
-        <v>4242.6400000000003</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1468,10 +1468,10 @@
         <v>131058.73</v>
       </c>
       <c r="C76">
+        <v>4217.68</v>
+      </c>
+      <c r="D76">
         <v>5098.8900000000003</v>
-      </c>
-      <c r="D76">
-        <v>4217.68</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1482,10 +1482,10 @@
         <v>129656.33</v>
       </c>
       <c r="C77">
+        <v>4140.07</v>
+      </c>
+      <c r="D77">
         <v>5176.6099999999997</v>
-      </c>
-      <c r="D77">
-        <v>4140.07</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1496,10 +1496,10 @@
         <v>130443.29</v>
       </c>
       <c r="C78">
+        <v>4217.43</v>
+      </c>
+      <c r="D78">
         <v>5093.3</v>
-      </c>
-      <c r="D78">
-        <v>4217.43</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1510,10 +1510,10 @@
         <v>131104.13</v>
       </c>
       <c r="C79">
+        <v>4212.9399999999996</v>
+      </c>
+      <c r="D79">
         <v>5143.59</v>
-      </c>
-      <c r="D79">
-        <v>4212.9399999999996</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,10 +1524,10 @@
         <v>132153.41</v>
       </c>
       <c r="C80">
+        <v>4239.6400000000003</v>
+      </c>
+      <c r="D80">
         <v>5131.3999999999996</v>
-      </c>
-      <c r="D80">
-        <v>4239.6400000000003</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1538,10 +1538,10 @@
         <v>132290.57</v>
       </c>
       <c r="C81">
+        <v>4248.37</v>
+      </c>
+      <c r="D81">
         <v>5150.7</v>
-      </c>
-      <c r="D81">
-        <v>4248.37</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1552,10 +1552,10 @@
         <v>131630.18</v>
       </c>
       <c r="C82">
+        <v>4237.8900000000003</v>
+      </c>
+      <c r="D82">
         <v>5210.6400000000003</v>
-      </c>
-      <c r="D82">
-        <v>4237.8900000000003</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1566,10 +1566,10 @@
         <v>132178.81</v>
       </c>
       <c r="C83">
+        <v>4232.1499999999996</v>
+      </c>
+      <c r="D83">
         <v>5147.1400000000003</v>
-      </c>
-      <c r="D83">
-        <v>4232.1499999999996</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1580,10 +1580,10 @@
         <v>131838.46</v>
       </c>
       <c r="C84">
+        <v>4214.9399999999996</v>
+      </c>
+      <c r="D84">
         <v>5155.2700000000004</v>
-      </c>
-      <c r="D84">
-        <v>4214.9399999999996</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1594,10 +1594,10 @@
         <v>132102.60999999999</v>
       </c>
       <c r="C85">
+        <v>4219.18</v>
+      </c>
+      <c r="D85">
         <v>5127.84</v>
-      </c>
-      <c r="D85">
-        <v>4219.18</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1608,10 +1608,10 @@
         <v>132600.44</v>
       </c>
       <c r="C86">
+        <v>4225.92</v>
+      </c>
+      <c r="D86">
         <v>5148.67</v>
-      </c>
-      <c r="D86">
-        <v>4225.92</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,10 +1622,10 @@
         <v>132158.49</v>
       </c>
       <c r="C87">
+        <v>4221.67</v>
+      </c>
+      <c r="D87">
         <v>5140.54</v>
-      </c>
-      <c r="D87">
-        <v>4221.67</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1636,10 +1636,10 @@
         <v>131498.1</v>
       </c>
       <c r="C88">
+        <v>4205.7</v>
+      </c>
+      <c r="D88">
         <v>5169.49</v>
-      </c>
-      <c r="D88">
-        <v>4205.7</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1650,10 +1650,10 @@
         <v>130482.13</v>
       </c>
       <c r="C89">
+        <v>4192.2299999999996</v>
+      </c>
+      <c r="D89">
         <v>5246.7</v>
-      </c>
-      <c r="D89">
-        <v>4192.2299999999996</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,10 +1664,10 @@
         <v>128155.54</v>
       </c>
       <c r="C90">
+        <v>4187.99</v>
+      </c>
+      <c r="D90">
         <v>5315.79</v>
-      </c>
-      <c r="D90">
-        <v>4187.99</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,10 +1678,10 @@
         <v>127520.55</v>
       </c>
       <c r="C91">
+        <v>4196.72</v>
+      </c>
+      <c r="D91">
         <v>5328.49</v>
-      </c>
-      <c r="D91">
-        <v>4196.72</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1692,10 +1692,10 @@
         <v>126590.93</v>
       </c>
       <c r="C92">
+        <v>4205.7</v>
+      </c>
+      <c r="D92">
         <v>5339.7</v>
-      </c>
-      <c r="D92">
-        <v>4205.7</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1706,10 +1706,10 @@
         <v>125869.58</v>
       </c>
       <c r="C93">
+        <v>4190.9799999999996</v>
+      </c>
+      <c r="D93">
         <v>5417.68</v>
-      </c>
-      <c r="D93">
-        <v>4190.9799999999996</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1720,10 +1720,10 @@
         <v>125285.4</v>
       </c>
       <c r="C94">
+        <v>4183.74</v>
+      </c>
+      <c r="D94">
         <v>5437.05</v>
-      </c>
-      <c r="D94">
-        <v>4183.74</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1734,10 +1734,10 @@
         <v>126123.58</v>
       </c>
       <c r="C95">
+        <v>4195.22</v>
+      </c>
+      <c r="D95">
         <v>5423.8</v>
-      </c>
-      <c r="D95">
-        <v>4195.22</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1748,10 +1748,10 @@
         <v>124716.45</v>
       </c>
       <c r="C96">
+        <v>4151.8</v>
+      </c>
+      <c r="D96">
         <v>5471.71</v>
-      </c>
-      <c r="D96">
-        <v>4151.8</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1762,10 +1762,10 @@
         <v>124701.21</v>
       </c>
       <c r="C97">
+        <v>4149.8100000000004</v>
+      </c>
+      <c r="D97">
         <v>5392.2</v>
-      </c>
-      <c r="D97">
-        <v>4149.8100000000004</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1776,10 +1776,10 @@
         <v>125066.96</v>
       </c>
       <c r="C98">
+        <v>4099.6499999999996</v>
+      </c>
+      <c r="D98">
         <v>5421.25</v>
-      </c>
-      <c r="D98">
-        <v>4099.6499999999996</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1790,10 +1790,10 @@
         <v>124863.76</v>
       </c>
       <c r="C99">
+        <v>4110.63</v>
+      </c>
+      <c r="D99">
         <v>5369.26</v>
-      </c>
-      <c r="D99">
-        <v>4110.63</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1804,10 +1804,10 @@
         <v>124975.52</v>
       </c>
       <c r="C100">
+        <v>4162.03</v>
+      </c>
+      <c r="D100">
         <v>5386.08</v>
-      </c>
-      <c r="D100">
-        <v>4162.03</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1818,10 +1818,10 @@
         <v>123807.15</v>
       </c>
       <c r="C101">
+        <v>4167.2700000000004</v>
+      </c>
+      <c r="D101">
         <v>5382.51</v>
-      </c>
-      <c r="D101">
-        <v>4167.2700000000004</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1832,10 +1832,10 @@
         <v>122902.93</v>
       </c>
       <c r="C102">
+        <v>4103.6400000000003</v>
+      </c>
+      <c r="D102">
         <v>5417.68</v>
-      </c>
-      <c r="D102">
-        <v>4103.6400000000003</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1846,10 +1846,10 @@
         <v>121815.83</v>
       </c>
       <c r="C103">
+        <v>4047.5</v>
+      </c>
+      <c r="D103">
         <v>5419.21</v>
-      </c>
-      <c r="D103">
-        <v>4047.5</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1860,10 +1860,10 @@
         <v>124924.72</v>
       </c>
       <c r="C104">
+        <v>4138.83</v>
+      </c>
+      <c r="D104">
         <v>5333.07</v>
-      </c>
-      <c r="D104">
-        <v>4138.83</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -1874,10 +1874,10 @@
         <v>124152.58</v>
       </c>
       <c r="C105">
+        <v>4174.51</v>
+      </c>
+      <c r="D105">
         <v>5335.62</v>
-      </c>
-      <c r="D105">
-        <v>4174.51</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1888,10 +1888,10 @@
         <v>124360.86</v>
       </c>
       <c r="C106">
+        <v>4223.42</v>
+      </c>
+      <c r="D106">
         <v>5351.42</v>
-      </c>
-      <c r="D106">
-        <v>4223.42</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,10 +1902,10 @@
         <v>122303.5</v>
       </c>
       <c r="C107">
+        <v>4194.22</v>
+      </c>
+      <c r="D107">
         <v>5393.22</v>
-      </c>
-      <c r="D107">
-        <v>4194.22</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,10 +1916,10 @@
         <v>121963.15</v>
       </c>
       <c r="C108">
+        <v>4158.04</v>
+      </c>
+      <c r="D108">
         <v>5469.67</v>
-      </c>
-      <c r="D108">
-        <v>4158.04</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -1930,10 +1930,10 @@
         <v>120068.35</v>
       </c>
       <c r="C109">
+        <v>4158.29</v>
+      </c>
+      <c r="D109">
         <v>5565.5</v>
-      </c>
-      <c r="D109">
-        <v>4158.29</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -1944,10 +1944,10 @@
         <v>121434.84</v>
       </c>
       <c r="C110">
+        <v>4178</v>
+      </c>
+      <c r="D110">
         <v>5559.38</v>
-      </c>
-      <c r="D110">
-        <v>4178</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -1958,10 +1958,10 @@
         <v>120957.33</v>
       </c>
       <c r="C111">
+        <v>4178.5</v>
+      </c>
+      <c r="D111">
         <v>5558.36</v>
-      </c>
-      <c r="D111">
-        <v>4178.5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -1972,10 +1972,10 @@
         <v>122186.66</v>
       </c>
       <c r="C112">
+        <v>4201.96</v>
+      </c>
+      <c r="D112">
         <v>5451.32</v>
-      </c>
-      <c r="D112">
-        <v>4201.96</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -1986,10 +1986,10 @@
         <v>123908.74</v>
       </c>
       <c r="C113">
+        <v>4186.74</v>
+      </c>
+      <c r="D113">
         <v>5457.96</v>
-      </c>
-      <c r="D113">
-        <v>4186.74</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2000,10 +2000,10 @@
         <v>121104.64</v>
       </c>
       <c r="C114">
+        <v>4176.51</v>
+      </c>
+      <c r="D114">
         <v>5567.2</v>
-      </c>
-      <c r="D114">
-        <v>4176.51</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2014,10 +2014,10 @@
         <v>123228.04</v>
       </c>
       <c r="C115">
+        <v>4177.26</v>
+      </c>
+      <c r="D115">
         <v>5553.93</v>
-      </c>
-      <c r="D115">
-        <v>4177.26</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2028,10 +2028,10 @@
         <v>123156.92</v>
       </c>
       <c r="C116">
+        <v>4167.0200000000004</v>
+      </c>
+      <c r="D116">
         <v>5592.22</v>
-      </c>
-      <c r="D116">
-        <v>4167.0200000000004</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2042,10 +2042,10 @@
         <v>122176.5</v>
       </c>
       <c r="C117">
+        <v>4127.3500000000004</v>
+      </c>
+      <c r="D117">
         <v>5562.1</v>
-      </c>
-      <c r="D117">
-        <v>4127.3500000000004</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2056,10 +2056,10 @@
         <v>122191.74</v>
       </c>
       <c r="C118">
+        <v>4119.8599999999997</v>
+      </c>
+      <c r="D118">
         <v>5689.2</v>
-      </c>
-      <c r="D118">
-        <v>4119.8599999999997</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2070,10 +2070,10 @@
         <v>123283.92</v>
       </c>
       <c r="C119">
+        <v>4154.8</v>
+      </c>
+      <c r="D119">
         <v>5665.21</v>
-      </c>
-      <c r="D119">
-        <v>4154.8</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2084,10 +2084,10 @@
         <v>123563.31</v>
       </c>
       <c r="C120">
+        <v>4172.0200000000004</v>
+      </c>
+      <c r="D120">
         <v>5708.6</v>
-      </c>
-      <c r="D120">
-        <v>4172.0200000000004</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2098,10 +2098,10 @@
         <v>123187.4</v>
       </c>
       <c r="C121">
+        <v>4159.54</v>
+      </c>
+      <c r="D121">
         <v>5739.74</v>
-      </c>
-      <c r="D121">
-        <v>4159.54</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2112,10 +2112,10 @@
         <v>122755.61</v>
       </c>
       <c r="C122">
+        <v>4120.3599999999997</v>
+      </c>
+      <c r="D122">
         <v>5780.58</v>
-      </c>
-      <c r="D122">
-        <v>4120.3599999999997</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2126,10 +2126,10 @@
         <v>121511.03999999999</v>
       </c>
       <c r="C123">
+        <v>4130.09</v>
+      </c>
+      <c r="D123">
         <v>5842.86</v>
-      </c>
-      <c r="D123">
-        <v>4130.09</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2140,10 +2140,10 @@
         <v>121209.84</v>
       </c>
       <c r="C124">
+        <v>4119.6099999999997</v>
+      </c>
+      <c r="D124">
         <v>5863.28</v>
-      </c>
-      <c r="D124">
-        <v>4119.6099999999997</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2154,10 +2154,10 @@
         <v>120275.61</v>
       </c>
       <c r="C125">
+        <v>4111.63</v>
+      </c>
+      <c r="D125">
         <v>5816.31</v>
-      </c>
-      <c r="D125">
-        <v>4111.63</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2168,10 +2168,10 @@
         <v>120735.06</v>
       </c>
       <c r="C126">
+        <v>4094.91</v>
+      </c>
+      <c r="D126">
         <v>5695.33</v>
-      </c>
-      <c r="D126">
-        <v>4094.91</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2182,10 +2182,10 @@
         <v>120474.7</v>
       </c>
       <c r="C127">
+        <v>4074.2</v>
+      </c>
+      <c r="D127">
         <v>5743.31</v>
-      </c>
-      <c r="D127">
-        <v>4074.2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2196,10 +2196,10 @@
         <v>120270.5</v>
       </c>
       <c r="C128">
+        <v>4064.96</v>
+      </c>
+      <c r="D128">
         <v>5716.77</v>
-      </c>
-      <c r="D128">
-        <v>4064.96</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2210,10 +2210,10 @@
         <v>120071.4</v>
       </c>
       <c r="C129">
+        <v>4066.21</v>
+      </c>
+      <c r="D129">
         <v>5790.79</v>
-      </c>
-      <c r="D129">
-        <v>4066.21</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2224,10 +2224,10 @@
         <v>117151.3</v>
       </c>
       <c r="C130">
+        <v>4010.31</v>
+      </c>
+      <c r="D130">
         <v>5838.26</v>
-      </c>
-      <c r="D130">
-        <v>4010.31</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2238,10 +2238,10 @@
         <v>119081.02</v>
       </c>
       <c r="C131">
+        <v>3962.65</v>
+      </c>
+      <c r="D131">
         <v>5759.14</v>
-      </c>
-      <c r="D131">
-        <v>3962.65</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,10 +2252,10 @@
         <v>119443.48</v>
       </c>
       <c r="C132">
+        <v>3945.68</v>
+      </c>
+      <c r="D132">
         <v>5904.62</v>
-      </c>
-      <c r="D132">
-        <v>3945.68</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2266,10 +2266,10 @@
         <v>118039.58</v>
       </c>
       <c r="C133">
+        <v>3960.91</v>
+      </c>
+      <c r="D133">
         <v>5913.83</v>
-      </c>
-      <c r="D133">
-        <v>3960.91</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2280,10 +2280,10 @@
         <v>117003.25</v>
       </c>
       <c r="C134">
+        <v>3960.16</v>
+      </c>
+      <c r="D134">
         <v>5887.24</v>
-      </c>
-      <c r="D134">
-        <v>3960.16</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2294,10 +2294,10 @@
         <v>115900.56</v>
       </c>
       <c r="C135">
+        <v>3901.27</v>
+      </c>
+      <c r="D135">
         <v>5778.84</v>
-      </c>
-      <c r="D135">
-        <v>3901.27</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2308,10 +2308,10 @@
         <v>114134.2</v>
       </c>
       <c r="C136">
+        <v>3880.06</v>
+      </c>
+      <c r="D136">
         <v>5755.32</v>
-      </c>
-      <c r="D136">
-        <v>3880.06</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2322,10 +2322,10 @@
         <v>115578.94</v>
       </c>
       <c r="C137">
+        <v>3905.01</v>
+      </c>
+      <c r="D137">
         <v>5652.55</v>
-      </c>
-      <c r="D137">
-        <v>3905.01</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2336,10 +2336,10 @@
         <v>117845.59</v>
       </c>
       <c r="C138">
+        <v>3938.45</v>
+      </c>
+      <c r="D138">
         <v>5638.74</v>
-      </c>
-      <c r="D138">
-        <v>3938.45</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2350,10 +2350,10 @@
         <v>118305.05</v>
       </c>
       <c r="C139">
+        <v>3898.02</v>
+      </c>
+      <c r="D139">
         <v>5616.24</v>
-      </c>
-      <c r="D139">
-        <v>3898.02</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,10 +2364,10 @@
         <v>117723.07</v>
       </c>
       <c r="C140">
+        <v>3910.25</v>
+      </c>
+      <c r="D140">
         <v>5690.9</v>
-      </c>
-      <c r="D140">
-        <v>3910.25</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2378,10 +2378,10 @@
         <v>119060.6</v>
       </c>
       <c r="C141">
+        <v>3957.07</v>
+      </c>
+      <c r="D141">
         <v>5712.37</v>
-      </c>
-      <c r="D141">
-        <v>3957.07</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2392,10 +2392,10 @@
         <v>116640.79</v>
       </c>
       <c r="C142">
+        <v>3954.58</v>
+      </c>
+      <c r="D142">
         <v>5755.32</v>
-      </c>
-      <c r="D142">
-        <v>3954.58</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2406,10 +2406,10 @@
         <v>117416.76</v>
       </c>
       <c r="C143">
+        <v>3949.1</v>
+      </c>
+      <c r="D143">
         <v>5748.16</v>
-      </c>
-      <c r="D143">
-        <v>3949.1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2420,10 +2420,10 @@
         <v>116548.9</v>
       </c>
       <c r="C144">
+        <v>3925.69</v>
+      </c>
+      <c r="D144">
         <v>5682.2</v>
-      </c>
-      <c r="D144">
-        <v>3925.69</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2434,10 +2434,10 @@
         <v>117023.67</v>
       </c>
       <c r="C145">
+        <v>3923.2</v>
+      </c>
+      <c r="D145">
         <v>5667.89</v>
-      </c>
-      <c r="D145">
-        <v>3923.2</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2448,10 +2448,10 @@
         <v>115369.63</v>
       </c>
       <c r="C146">
+        <v>3880.36</v>
+      </c>
+      <c r="D146">
         <v>5806.96</v>
-      </c>
-      <c r="D146">
-        <v>3880.36</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2462,10 +2462,10 @@
         <v>113485.85</v>
       </c>
       <c r="C147">
+        <v>3861.19</v>
+      </c>
+      <c r="D147">
         <v>5939.39</v>
-      </c>
-      <c r="D147">
-        <v>3861.19</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2476,10 +2476,10 @@
         <v>111290.67</v>
       </c>
       <c r="C148">
+        <v>3813.86</v>
+      </c>
+      <c r="D148">
         <v>6015.58</v>
-      </c>
-      <c r="D148">
-        <v>3813.86</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2490,10 +2490,10 @@
         <v>117891.54</v>
       </c>
       <c r="C149">
+        <v>3828.81</v>
+      </c>
+      <c r="D149">
         <v>5825.88</v>
-      </c>
-      <c r="D149">
-        <v>3828.81</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2504,10 +2504,10 @@
         <v>115834.19</v>
       </c>
       <c r="C150">
+        <v>3751.6</v>
+      </c>
+      <c r="D150">
         <v>5803.38</v>
-      </c>
-      <c r="D150">
-        <v>3751.6</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2518,10 +2518,10 @@
         <v>113674.74</v>
       </c>
       <c r="C151">
+        <v>3807.14</v>
+      </c>
+      <c r="D151">
         <v>5749.18</v>
-      </c>
-      <c r="D151">
-        <v>3807.14</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,10 +2532,10 @@
         <v>114333.3</v>
       </c>
       <c r="C152">
+        <v>3858.45</v>
+      </c>
+      <c r="D152">
         <v>5814.63</v>
-      </c>
-      <c r="D152">
-        <v>3858.45</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -2546,10 +2546,10 @@
         <v>112791.56</v>
       </c>
       <c r="C153">
+        <v>3881.86</v>
+      </c>
+      <c r="D153">
         <v>5775.26</v>
-      </c>
-      <c r="D153">
-        <v>3881.86</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,10 +2560,10 @@
         <v>112107.48</v>
       </c>
       <c r="C154">
+        <v>3815.61</v>
+      </c>
+      <c r="D154">
         <v>5736.91</v>
-      </c>
-      <c r="D154">
-        <v>3815.61</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,10 +2574,10 @@
         <v>114353.72</v>
       </c>
       <c r="C155">
+        <v>3815.61</v>
+      </c>
+      <c r="D155">
         <v>5665.33</v>
-      </c>
-      <c r="D155">
-        <v>3815.61</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -2588,10 +2588,10 @@
         <v>118381.62</v>
       </c>
       <c r="C156">
+        <v>3903.77</v>
+      </c>
+      <c r="D156">
         <v>5531.77</v>
-      </c>
-      <c r="D156">
-        <v>3903.77</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -2602,10 +2602,10 @@
         <v>117942.59</v>
       </c>
       <c r="C157">
+        <v>3868.66</v>
+      </c>
+      <c r="D157">
         <v>5570.15</v>
-      </c>
-      <c r="D157">
-        <v>3868.66</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -2616,10 +2616,10 @@
         <v>114486.45</v>
       </c>
       <c r="C158">
+        <v>3858.45</v>
+      </c>
+      <c r="D158">
         <v>5595.22</v>
-      </c>
-      <c r="D158">
-        <v>3858.45</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -2630,10 +2630,10 @@
         <v>120704.43</v>
       </c>
       <c r="C159">
+        <v>3892.32</v>
+      </c>
+      <c r="D159">
         <v>5509.25</v>
-      </c>
-      <c r="D159">
-        <v>3892.32</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -2644,10 +2644,10 @@
         <v>121705.03</v>
       </c>
       <c r="C160">
+        <v>3898.3</v>
+      </c>
+      <c r="D160">
         <v>5558.89</v>
-      </c>
-      <c r="D160">
-        <v>3898.3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -2658,10 +2658,10 @@
         <v>123318.23</v>
       </c>
       <c r="C161">
+        <v>3912.99</v>
+      </c>
+      <c r="D161">
         <v>5540.98</v>
-      </c>
-      <c r="D161">
-        <v>3912.99</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,10 +2672,10 @@
         <v>122659.68</v>
       </c>
       <c r="C162">
+        <v>3916.23</v>
+      </c>
+      <c r="D162">
         <v>5499.02</v>
-      </c>
-      <c r="D162">
-        <v>3916.23</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -2686,10 +2686,10 @@
         <v>122690.45</v>
       </c>
       <c r="C163">
+        <v>3897.05</v>
+      </c>
+      <c r="D163">
         <v>5496.46</v>
-      </c>
-      <c r="D163">
-        <v>3897.05</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,10 +2700,10 @@
         <v>121238.89</v>
       </c>
       <c r="C164">
+        <v>3890.33</v>
+      </c>
+      <c r="D164">
         <v>5517.44</v>
-      </c>
-      <c r="D164">
-        <v>3890.33</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -2714,10 +2714,10 @@
         <v>122587.87</v>
       </c>
       <c r="C165">
+        <v>3893.56</v>
+      </c>
+      <c r="D165">
         <v>5509.25</v>
-      </c>
-      <c r="D165">
-        <v>3893.56</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -2728,10 +2728,10 @@
         <v>122762.26</v>
       </c>
       <c r="C166">
+        <v>3888.83</v>
+      </c>
+      <c r="D166">
         <v>5496.97</v>
-      </c>
-      <c r="D166">
-        <v>3888.83</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -2742,10 +2742,10 @@
         <v>123613.71</v>
       </c>
       <c r="C167">
+        <v>3864.92</v>
+      </c>
+      <c r="D167">
         <v>5501.07</v>
-      </c>
-      <c r="D167">
-        <v>3864.92</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -2756,10 +2756,10 @@
         <v>122023.66</v>
       </c>
       <c r="C168">
+        <v>3845.49</v>
+      </c>
+      <c r="D168">
         <v>5557.36</v>
-      </c>
-      <c r="D168">
-        <v>3845.49</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,10 +2770,10 @@
         <v>122936.65</v>
       </c>
       <c r="C169">
+        <v>3815.61</v>
+      </c>
+      <c r="D169">
         <v>5482.13</v>
-      </c>
-      <c r="D169">
-        <v>3815.61</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,10 +2784,10 @@
         <v>121674.87</v>
       </c>
       <c r="C170">
+        <v>3810.38</v>
+      </c>
+      <c r="D170">
         <v>5497.48</v>
-      </c>
-      <c r="D170">
-        <v>3810.38</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -2798,10 +2798,10 @@
         <v>120484.9</v>
       </c>
       <c r="C171">
+        <v>3761.81</v>
+      </c>
+      <c r="D171">
         <v>5562.98</v>
-      </c>
-      <c r="D171">
-        <v>3761.81</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,10 +2812,10 @@
         <v>117971.59</v>
       </c>
       <c r="C172">
+        <v>3706.77</v>
+      </c>
+      <c r="D172">
         <v>5593.69</v>
-      </c>
-      <c r="D172">
-        <v>3706.77</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -2826,10 +2826,10 @@
         <v>122408.35</v>
       </c>
       <c r="C173">
+        <v>3772.77</v>
+      </c>
+      <c r="D173">
         <v>5573.73</v>
-      </c>
-      <c r="D173">
-        <v>3772.77</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -2840,10 +2840,10 @@
         <v>118484.51</v>
       </c>
       <c r="C174">
+        <v>3731.67</v>
+      </c>
+      <c r="D174">
         <v>5546.08</v>
-      </c>
-      <c r="D174">
-        <v>3731.67</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -2854,10 +2854,10 @@
         <v>119305.18</v>
       </c>
       <c r="C175">
+        <v>3838.02</v>
+      </c>
+      <c r="D175">
         <v>5485.65</v>
-      </c>
-      <c r="D175">
-        <v>3838.02</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -2868,10 +2868,10 @@
         <v>120536.19</v>
       </c>
       <c r="C176">
+        <v>3825.57</v>
+      </c>
+      <c r="D176">
         <v>5601.9</v>
-      </c>
-      <c r="D176">
-        <v>3825.57</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -2882,10 +2882,10 @@
         <v>121254.28</v>
       </c>
       <c r="C177">
+        <v>3839.52</v>
+      </c>
+      <c r="D177">
         <v>5482.58</v>
-      </c>
-      <c r="D177">
-        <v>3839.52</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -2896,10 +2896,10 @@
         <v>122787.91</v>
       </c>
       <c r="C178">
+        <v>3839.02</v>
+      </c>
+      <c r="D178">
         <v>5422.15</v>
-      </c>
-      <c r="D178">
-        <v>3839.02</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -2910,10 +2910,10 @@
         <v>123741.94</v>
       </c>
       <c r="C179">
+        <v>3770.28</v>
+      </c>
+      <c r="D179">
         <v>5492.31</v>
-      </c>
-      <c r="D179">
-        <v>3770.28</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -2924,10 +2924,10 @@
         <v>124398.48</v>
       </c>
       <c r="C180">
+        <v>3756.83</v>
+      </c>
+      <c r="D180">
         <v>5430.34</v>
-      </c>
-      <c r="D180">
-        <v>3756.83</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -2938,10 +2938,10 @@
         <v>123459.83</v>
       </c>
       <c r="C181">
+        <v>3745.87</v>
+      </c>
+      <c r="D181">
         <v>5422.66</v>
-      </c>
-      <c r="D181">
-        <v>3745.87</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -2952,10 +2952,10 @@
         <v>126383.48</v>
       </c>
       <c r="C182">
+        <v>3781.49</v>
+      </c>
+      <c r="D182">
         <v>5324.85</v>
-      </c>
-      <c r="D182">
-        <v>3781.49</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -2966,10 +2966,10 @@
         <v>125429.45</v>
       </c>
       <c r="C183">
+        <v>3798.17</v>
+      </c>
+      <c r="D183">
         <v>5431.37</v>
-      </c>
-      <c r="D183">
-        <v>3798.17</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -2980,10 +2980,10 @@
         <v>127378.54</v>
       </c>
       <c r="C184">
+        <v>3790.2</v>
+      </c>
+      <c r="D184">
         <v>5458.51</v>
-      </c>
-      <c r="D184">
-        <v>3790.2</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -2994,10 +2994,10 @@
         <v>126691.23</v>
       </c>
       <c r="C185">
+        <v>3778.5</v>
+      </c>
+      <c r="D185">
         <v>5621.87</v>
-      </c>
-      <c r="D185">
-        <v>3778.5</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3008,10 +3008,10 @@
         <v>128604.42</v>
       </c>
       <c r="C186">
+        <v>3805.65</v>
+      </c>
+      <c r="D186">
         <v>5553.76</v>
-      </c>
-      <c r="D186">
-        <v>3805.65</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3022,10 +3022,10 @@
         <v>126362.96</v>
       </c>
       <c r="C187">
+        <v>3789.46</v>
+      </c>
+      <c r="D187">
         <v>5552.22</v>
-      </c>
-      <c r="D187">
-        <v>3789.46</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3036,10 +3036,10 @@
         <v>122136.5</v>
       </c>
       <c r="C188">
+        <v>3731.67</v>
+      </c>
+      <c r="D188">
         <v>5450.83</v>
-      </c>
-      <c r="D188">
-        <v>3731.67</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3050,10 +3050,10 @@
         <v>122126.24</v>
       </c>
       <c r="C189">
+        <v>3704.78</v>
+      </c>
+      <c r="D189">
         <v>5423.17</v>
-      </c>
-      <c r="D189">
-        <v>3704.78</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3064,10 +3064,10 @@
         <v>121762.07</v>
       </c>
       <c r="C190">
+        <v>3679.37</v>
+      </c>
+      <c r="D190">
         <v>5430.85</v>
-      </c>
-      <c r="D190">
-        <v>3679.37</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3078,10 +3078,10 @@
         <v>122254.47</v>
       </c>
       <c r="C191">
+        <v>3723.46</v>
+      </c>
+      <c r="D191">
         <v>5328.43</v>
-      </c>
-      <c r="D191">
-        <v>3723.46</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3092,10 +3092,10 @@
         <v>122669.94</v>
       </c>
       <c r="C192">
+        <v>3711</v>
+      </c>
+      <c r="D192">
         <v>5340.72</v>
-      </c>
-      <c r="D192">
-        <v>3711</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3106,10 +3106,10 @@
         <v>122639.16</v>
       </c>
       <c r="C193">
+        <v>3716.48</v>
+      </c>
+      <c r="D193">
         <v>5365.31</v>
-      </c>
-      <c r="D193">
-        <v>3716.48</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3120,10 +3120,10 @@
         <v>120915.75</v>
       </c>
       <c r="C194">
+        <v>3673.14</v>
+      </c>
+      <c r="D194">
         <v>5346.87</v>
-      </c>
-      <c r="D194">
-        <v>3673.14</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3134,10 +3134,10 @@
         <v>120064.3</v>
       </c>
       <c r="C195">
+        <v>3669.66</v>
+      </c>
+      <c r="D195">
         <v>5284.9</v>
-      </c>
-      <c r="D195">
-        <v>3669.66</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3148,10 +3148,10 @@
         <v>118894.85</v>
       </c>
       <c r="C196">
+        <v>3669.66</v>
+      </c>
+      <c r="D196">
         <v>5242.9</v>
-      </c>
-      <c r="D196">
-        <v>3669.66</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3162,10 +3162,10 @@
         <v>121090.14</v>
       </c>
       <c r="C197">
+        <v>3693.07</v>
+      </c>
+      <c r="D197">
         <v>5226</v>
-      </c>
-      <c r="D197">
-        <v>3693.07</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3176,10 +3176,10 @@
         <v>121900.56</v>
       </c>
       <c r="C198">
+        <v>3713.49</v>
+      </c>
+      <c r="D198">
         <v>5180.42</v>
-      </c>
-      <c r="D198">
-        <v>3713.49</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3190,10 +3190,10 @@
         <v>120915.75</v>
       </c>
       <c r="C199">
+        <v>3693.31</v>
+      </c>
+      <c r="D199">
         <v>5206.54</v>
-      </c>
-      <c r="D199">
-        <v>3693.31</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3204,10 +3204,10 @@
         <v>119612.93</v>
       </c>
       <c r="C200">
+        <v>3685.08</v>
+      </c>
+      <c r="D200">
         <v>5208.08</v>
-      </c>
-      <c r="D200">
-        <v>3685.08</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -3218,10 +3218,10 @@
         <v>117576.53</v>
       </c>
       <c r="C201">
+        <v>3642.21</v>
+      </c>
+      <c r="D201">
         <v>5241.88</v>
-      </c>
-      <c r="D201">
-        <v>3642.21</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,10 +3232,10 @@
         <v>118461.03</v>
       </c>
       <c r="C202">
+        <v>3651.68</v>
+      </c>
+      <c r="D202">
         <v>5193.74</v>
-      </c>
-      <c r="D202">
-        <v>3651.68</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3246,10 +3246,10 @@
         <v>118635.87</v>
       </c>
       <c r="C203">
+        <v>3660.66</v>
+      </c>
+      <c r="D203">
         <v>5149.6899999999996</v>
-      </c>
-      <c r="D203">
-        <v>3660.66</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3260,10 +3260,10 @@
         <v>116208.64</v>
       </c>
       <c r="C204">
+        <v>3663.65</v>
+      </c>
+      <c r="D204">
         <v>5298.22</v>
-      </c>
-      <c r="D204">
-        <v>3663.65</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3274,10 +3274,10 @@
         <v>116990.29</v>
       </c>
       <c r="C205">
+        <v>3694.3</v>
+      </c>
+      <c r="D205">
         <v>5244.44</v>
-      </c>
-      <c r="D205">
-        <v>3694.3</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3288,10 +3288,10 @@
         <v>116990.29</v>
       </c>
       <c r="C206">
+        <v>3681.59</v>
+      </c>
+      <c r="D206">
         <v>5223.4399999999996</v>
-      </c>
-      <c r="D206">
-        <v>3681.59</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3302,10 +3302,10 @@
         <v>116758.88</v>
       </c>
       <c r="C207">
+        <v>3692.31</v>
+      </c>
+      <c r="D207">
         <v>5284.39</v>
-      </c>
-      <c r="D207">
-        <v>3692.31</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,10 +3316,10 @@
         <v>115653.26</v>
       </c>
       <c r="C208">
+        <v>3655.67</v>
+      </c>
+      <c r="D208">
         <v>5278.75</v>
-      </c>
-      <c r="D208">
-        <v>3655.67</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -3330,10 +3330,10 @@
         <v>115092.74</v>
       </c>
       <c r="C209">
+        <v>3660.41</v>
+      </c>
+      <c r="D209">
         <v>5346.87</v>
-      </c>
-      <c r="D209">
-        <v>3660.41</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -3344,10 +3344,10 @@
         <v>114573.35</v>
       </c>
       <c r="C210">
+        <v>3653.68</v>
+      </c>
+      <c r="D210">
         <v>5335.09</v>
-      </c>
-      <c r="D210">
-        <v>3653.68</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -3358,10 +3358,10 @@
         <v>112614.09</v>
       </c>
       <c r="C211">
+        <v>3606.08</v>
+      </c>
+      <c r="D211">
         <v>5464.66</v>
-      </c>
-      <c r="D211">
-        <v>3606.08</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -3372,10 +3372,10 @@
         <v>113534.58</v>
       </c>
       <c r="C212">
+        <v>3627.76</v>
+      </c>
+      <c r="D212">
         <v>5473.88</v>
-      </c>
-      <c r="D212">
-        <v>3627.76</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -3386,10 +3386,10 @@
         <v>113467.73</v>
       </c>
       <c r="C213">
+        <v>3612.56</v>
+      </c>
+      <c r="D213">
         <v>5462.62</v>
-      </c>
-      <c r="D213">
-        <v>3612.56</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -3400,10 +3400,10 @@
         <v>113195.18</v>
       </c>
       <c r="C214">
+        <v>3626.26</v>
+      </c>
+      <c r="D214">
         <v>5447.27</v>
-      </c>
-      <c r="D214">
-        <v>3626.26</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -3414,10 +3414,10 @@
         <v>113328.88</v>
       </c>
       <c r="C215">
+        <v>3625.02</v>
+      </c>
+      <c r="D215">
         <v>5501.01</v>
-      </c>
-      <c r="D215">
-        <v>3625.02</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -3428,10 +3428,10 @@
         <v>110510.83</v>
       </c>
       <c r="C216">
+        <v>3563.46</v>
+      </c>
+      <c r="D216">
         <v>5570.1</v>
-      </c>
-      <c r="D216">
-        <v>3563.46</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -3442,10 +3442,10 @@
         <v>109225.22</v>
       </c>
       <c r="C217">
+        <v>3549</v>
+      </c>
+      <c r="D217">
         <v>5508.17</v>
-      </c>
-      <c r="D217">
-        <v>3549</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -3456,10 +3456,10 @@
         <v>109585.19</v>
       </c>
       <c r="C218">
+        <v>3571.93</v>
+      </c>
+      <c r="D218">
         <v>5432.94</v>
-      </c>
-      <c r="D218">
-        <v>3571.93</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -3470,10 +3470,10 @@
         <v>108916.68</v>
       </c>
       <c r="C219">
+        <v>3568.94</v>
+      </c>
+      <c r="D219">
         <v>5491.28</v>
-      </c>
-      <c r="D219">
-        <v>3568.94</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -3484,10 +3484,10 @@
         <v>110562.26</v>
       </c>
       <c r="C220">
+        <v>3601.84</v>
+      </c>
+      <c r="D220">
         <v>5461.09</v>
-      </c>
-      <c r="D220">
-        <v>3601.84</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -3498,10 +3498,10 @@
         <v>109924.59</v>
       </c>
       <c r="C221">
+        <v>3613.55</v>
+      </c>
+      <c r="D221">
         <v>5548.6</v>
-      </c>
-      <c r="D221">
-        <v>3613.55</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -3512,10 +3512,10 @@
         <v>107965.33</v>
       </c>
       <c r="C222">
+        <v>3578.66</v>
+      </c>
+      <c r="D222">
         <v>5590.05</v>
-      </c>
-      <c r="D222">
-        <v>3578.66</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -3526,10 +3526,10 @@
         <v>105831.22</v>
       </c>
       <c r="C223">
+        <v>3516.1</v>
+      </c>
+      <c r="D223">
         <v>5591.59</v>
-      </c>
-      <c r="D223">
-        <v>3516.1</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -3540,10 +3540,10 @@
         <v>108129.89</v>
       </c>
       <c r="C224">
+        <v>3560.47</v>
+      </c>
+      <c r="D224">
         <v>5523.01</v>
-      </c>
-      <c r="D224">
-        <v>3560.47</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -3554,10 +3554,10 @@
         <v>107872.76</v>
       </c>
       <c r="C225">
+        <v>3540.78</v>
+      </c>
+      <c r="D225">
         <v>5546.04</v>
-      </c>
-      <c r="D225">
-        <v>3540.78</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -3568,10 +3568,10 @@
         <v>106191.19</v>
       </c>
       <c r="C226">
+        <v>3544.02</v>
+      </c>
+      <c r="D226">
         <v>5516.87</v>
-      </c>
-      <c r="D226">
-        <v>3544.02</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -3582,10 +3582,10 @@
         <v>103913.09</v>
       </c>
       <c r="C227">
+        <v>3512.86</v>
+      </c>
+      <c r="D227">
         <v>5496.4</v>
-      </c>
-      <c r="D227">
-        <v>3512.86</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -3596,10 +3596,10 @@
         <v>103959.37</v>
       </c>
       <c r="C228">
+        <v>3496.42</v>
+      </c>
+      <c r="D228">
         <v>5659.66</v>
-      </c>
-      <c r="D228">
-        <v>3496.42</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -3610,10 +3610,10 @@
         <v>101192.75</v>
       </c>
       <c r="C229">
+        <v>3437.35</v>
+      </c>
+      <c r="D229">
         <v>5789.64</v>
-      </c>
-      <c r="D229">
-        <v>3437.35</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -3624,10 +3624,10 @@
         <v>98477.54</v>
       </c>
       <c r="C230">
+        <v>3365.07</v>
+      </c>
+      <c r="D230">
         <v>5896.6</v>
-      </c>
-      <c r="D230">
-        <v>3365.07</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -3638,10 +3638,10 @@
         <v>97227.93</v>
       </c>
       <c r="C231">
+        <v>3276.35</v>
+      </c>
+      <c r="D231">
         <v>5898.65</v>
-      </c>
-      <c r="D231">
-        <v>3276.35</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -3652,10 +3652,10 @@
         <v>98492.97</v>
       </c>
       <c r="C232">
+        <v>3279.84</v>
+      </c>
+      <c r="D232">
         <v>5917.08</v>
-      </c>
-      <c r="D232">
-        <v>3279.84</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -3666,10 +3666,10 @@
         <v>97839.88</v>
       </c>
       <c r="C233">
+        <v>3265.13</v>
+      </c>
+      <c r="D233">
         <v>5881.27</v>
-      </c>
-      <c r="D233">
-        <v>3265.13</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -3680,10 +3680,10 @@
         <v>101665.85</v>
       </c>
       <c r="C234">
+        <v>3359.59</v>
+      </c>
+      <c r="D234">
         <v>5840.86</v>
-      </c>
-      <c r="D234">
-        <v>3359.59</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -3694,10 +3694,10 @@
         <v>104242.21</v>
       </c>
       <c r="C235">
+        <v>3390.99</v>
+      </c>
+      <c r="D235">
         <v>5753.91</v>
-      </c>
-      <c r="D235">
-        <v>3390.99</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -3708,10 +3708,10 @@
         <v>104525.04</v>
       </c>
       <c r="C236">
+        <v>3448.81</v>
+      </c>
+      <c r="D236">
         <v>5750.84</v>
-      </c>
-      <c r="D236">
-        <v>3448.81</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -3722,10 +3722,10 @@
         <v>105291.26</v>
       </c>
       <c r="C237">
+        <v>3439.34</v>
+      </c>
+      <c r="D237">
         <v>5729.87</v>
-      </c>
-      <c r="D237">
-        <v>3439.34</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -3736,10 +3736,10 @@
         <v>103578.83</v>
       </c>
       <c r="C238">
+        <v>3428.38</v>
+      </c>
+      <c r="D238">
         <v>5739.07</v>
-      </c>
-      <c r="D238">
-        <v>3428.38</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -3750,10 +3750,10 @@
         <v>103805.1</v>
       </c>
       <c r="C239">
+        <v>3424.39</v>
+      </c>
+      <c r="D239">
         <v>5738.56</v>
-      </c>
-      <c r="D239">
-        <v>3424.39</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -3764,10 +3764,10 @@
         <v>101758.41</v>
       </c>
       <c r="C240">
+        <v>3433.11</v>
+      </c>
+      <c r="D240">
         <v>5740.1</v>
-      </c>
-      <c r="D240">
-        <v>3433.11</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -3778,10 +3778,10 @@
         <v>101511.58</v>
       </c>
       <c r="C241">
+        <v>3457.04</v>
+      </c>
+      <c r="D241">
         <v>5777.43</v>
-      </c>
-      <c r="D241">
-        <v>3457.04</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -3792,10 +3792,10 @@
         <v>101866.41</v>
       </c>
       <c r="C242">
+        <v>3473.49</v>
+      </c>
+      <c r="D242">
         <v>5745.21</v>
-      </c>
-      <c r="D242">
-        <v>3473.49</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -3806,10 +3806,10 @@
         <v>102077.25</v>
       </c>
       <c r="C243">
+        <v>3473.74</v>
+      </c>
+      <c r="D243">
         <v>5725.77</v>
-      </c>
-      <c r="D243">
-        <v>3473.74</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -3820,10 +3820,10 @@
         <v>101203.03</v>
       </c>
       <c r="C244">
+        <v>3497.16</v>
+      </c>
+      <c r="D244">
         <v>5693.55</v>
-      </c>
-      <c r="D244">
-        <v>3497.16</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -3834,10 +3834,10 @@
         <v>100759.34</v>
       </c>
       <c r="C245">
+        <v>3471.49</v>
+      </c>
+      <c r="D245">
         <v>5669.51</v>
-      </c>
-      <c r="D245">
-        <v>3471.49</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -3848,10 +3848,10 @@
         <v>100764.5</v>
       </c>
       <c r="C246">
+        <v>3440.59</v>
+      </c>
+      <c r="D246">
         <v>5733.45</v>
-      </c>
-      <c r="D246">
-        <v>3440.59</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -3862,10 +3862,10 @@
         <v>98840.11</v>
       </c>
       <c r="C247">
+        <v>3401.96</v>
+      </c>
+      <c r="D247">
         <v>5744.19</v>
-      </c>
-      <c r="D247">
-        <v>3401.96</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -3876,10 +3876,10 @@
         <v>98546.04</v>
       </c>
       <c r="C248">
+        <v>3327.94</v>
+      </c>
+      <c r="D248">
         <v>5724.24</v>
-      </c>
-      <c r="D248">
-        <v>3327.94</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -3890,10 +3890,10 @@
         <v>98953.62</v>
       </c>
       <c r="C249">
+        <v>3391.49</v>
+      </c>
+      <c r="D249">
         <v>5708.38</v>
-      </c>
-      <c r="D249">
-        <v>3391.49</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -3904,10 +3904,10 @@
         <v>96270.83</v>
       </c>
       <c r="C250">
+        <v>3339.65</v>
+      </c>
+      <c r="D250">
         <v>5821.42</v>
-      </c>
-      <c r="D250">
-        <v>3339.65</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -3918,10 +3918,10 @@
         <v>98267.44</v>
       </c>
       <c r="C251">
+        <v>3364.08</v>
+      </c>
+      <c r="D251">
         <v>5776.41</v>
-      </c>
-      <c r="D251">
-        <v>3364.08</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -3932,10 +3932,10 @@
         <v>98102.35</v>
       </c>
       <c r="C252">
+        <v>3330.68</v>
+      </c>
+      <c r="D252">
         <v>5745.21</v>
-      </c>
-      <c r="D252">
-        <v>3330.68</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -3946,10 +3946,10 @@
         <v>96441.08</v>
       </c>
       <c r="C253">
+        <v>3325.69</v>
+      </c>
+      <c r="D253">
         <v>5764.65</v>
-      </c>
-      <c r="D253">
-        <v>3325.69</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -3960,10 +3960,10 @@
         <v>97509.04</v>
       </c>
       <c r="C254">
+        <v>3336.66</v>
+      </c>
+      <c r="D254">
         <v>5789.71</v>
-      </c>
-      <c r="D254">
-        <v>3336.66</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -3974,10 +3974,10 @@
         <v>100176.35</v>
       </c>
       <c r="C255">
+        <v>3283.82</v>
+      </c>
+      <c r="D255">
         <v>5689.97</v>
-      </c>
-      <c r="D255">
-        <v>3283.82</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -3988,10 +3988,10 @@
         <v>100068.01</v>
       </c>
       <c r="C256">
+        <v>3239.71</v>
+      </c>
+      <c r="D256">
         <v>5635.75</v>
-      </c>
-      <c r="D256">
-        <v>3239.71</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4002,10 +4002,10 @@
         <v>98654.38</v>
       </c>
       <c r="C257">
+        <v>3229.74</v>
+      </c>
+      <c r="D257">
         <v>5723.22</v>
-      </c>
-      <c r="D257">
-        <v>3229.74</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4016,10 +4016,10 @@
         <v>100062.85</v>
       </c>
       <c r="C258">
+        <v>3293.54</v>
+      </c>
+      <c r="D258">
         <v>5597.9</v>
-      </c>
-      <c r="D258">
-        <v>3293.54</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4030,10 +4030,10 @@
         <v>100026.73</v>
       </c>
       <c r="C259">
+        <v>3276.6</v>
+      </c>
+      <c r="D259">
         <v>5543.17</v>
-      </c>
-      <c r="D259">
-        <v>3276.6</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4044,10 +4044,10 @@
         <v>101213.35</v>
       </c>
       <c r="C260">
+        <v>3307.75</v>
+      </c>
+      <c r="D260">
         <v>5515.55</v>
-      </c>
-      <c r="D260">
-        <v>3307.75</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4058,10 +4058,10 @@
         <v>103442.13</v>
       </c>
       <c r="C261">
+        <v>3355.35</v>
+      </c>
+      <c r="D261">
         <v>5360.05</v>
-      </c>
-      <c r="D261">
-        <v>3355.35</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4072,10 +4072,10 @@
         <v>102874.62</v>
       </c>
       <c r="C262">
+        <v>3379.3</v>
+      </c>
+      <c r="D262">
         <v>5360.56</v>
-      </c>
-      <c r="D262">
-        <v>3379.3</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4086,10 +4086,10 @@
         <v>103622.7</v>
       </c>
       <c r="C263">
+        <v>3399.51</v>
+      </c>
+      <c r="D263">
         <v>5399.43</v>
-      </c>
-      <c r="D263">
-        <v>3399.51</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4100,10 +4100,10 @@
         <v>103359.58</v>
       </c>
       <c r="C264">
+        <v>3372.56</v>
+      </c>
+      <c r="D264">
         <v>5394.32</v>
-      </c>
-      <c r="D264">
-        <v>3372.56</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -4114,10 +4114,10 @@
         <v>101275.26</v>
       </c>
       <c r="C265">
+        <v>3322.67</v>
+      </c>
+      <c r="D265">
         <v>5442.91</v>
-      </c>
-      <c r="D265">
-        <v>3322.67</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -4128,10 +4128,10 @@
         <v>101491.95</v>
       </c>
       <c r="C266">
+        <v>3330.41</v>
+      </c>
+      <c r="D266">
         <v>5447.52</v>
-      </c>
-      <c r="D266">
-        <v>3330.41</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -4142,10 +4142,10 @@
         <v>104535.88</v>
       </c>
       <c r="C267">
+        <v>3389.53</v>
+      </c>
+      <c r="D267">
         <v>5434.73</v>
-      </c>
-      <c r="D267">
-        <v>3389.53</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -4156,10 +4156,10 @@
         <v>103251.24</v>
       </c>
       <c r="C268">
+        <v>3326.67</v>
+      </c>
+      <c r="D268">
         <v>5489.46</v>
-      </c>
-      <c r="D268">
-        <v>3326.67</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -4170,10 +4170,10 @@
         <v>104205.69</v>
       </c>
       <c r="C269">
+        <v>3412.48</v>
+      </c>
+      <c r="D269">
         <v>5425.01</v>
-      </c>
-      <c r="D269">
-        <v>3412.48</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -4184,10 +4184,10 @@
         <v>104277.92</v>
       </c>
       <c r="C270">
+        <v>3454.88</v>
+      </c>
+      <c r="D270">
         <v>5419.89</v>
-      </c>
-      <c r="D270">
-        <v>3454.88</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -4198,10 +4198,10 @@
         <v>105784.41</v>
       </c>
       <c r="C271">
+        <v>3572.12</v>
+      </c>
+      <c r="D271">
         <v>5469.51</v>
-      </c>
-      <c r="D271">
-        <v>3572.12</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -4212,10 +4212,10 @@
         <v>105443.9</v>
       </c>
       <c r="C272">
+        <v>3522.23</v>
+      </c>
+      <c r="D272">
         <v>5531.91</v>
-      </c>
-      <c r="D272">
-        <v>3522.23</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -4226,10 +4226,10 @@
         <v>102905.57</v>
       </c>
       <c r="C273">
+        <v>3489.81</v>
+      </c>
+      <c r="D273">
         <v>5624.5</v>
-      </c>
-      <c r="D273">
-        <v>3489.81</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -4240,10 +4240,10 @@
         <v>105763.77</v>
       </c>
       <c r="C274">
+        <v>3506.02</v>
+      </c>
+      <c r="D274">
         <v>5517.59</v>
-      </c>
-      <c r="D274">
-        <v>3506.02</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -4254,10 +4254,10 @@
         <v>104277.92</v>
       </c>
       <c r="C275">
+        <v>3483.82</v>
+      </c>
+      <c r="D275">
         <v>5702.86</v>
-      </c>
-      <c r="D275">
-        <v>3483.82</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -4268,10 +4268,10 @@
         <v>103834.23</v>
       </c>
       <c r="C276">
+        <v>3476.83</v>
+      </c>
+      <c r="D276">
         <v>5744.31</v>
-      </c>
-      <c r="D276">
-        <v>3476.83</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -4282,10 +4282,10 @@
         <v>105340.72</v>
       </c>
       <c r="C277">
+        <v>3440.91</v>
+      </c>
+      <c r="D277">
         <v>5639.91</v>
-      </c>
-      <c r="D277">
-        <v>3440.91</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -4296,10 +4296,10 @@
         <v>105815.36</v>
       </c>
       <c r="C278">
+        <v>3424.45</v>
+      </c>
+      <c r="D278">
         <v>5748.41</v>
-      </c>
-      <c r="D278">
-        <v>3424.45</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -4310,10 +4310,10 @@
         <v>104577.15</v>
       </c>
       <c r="C279">
+        <v>3387.53</v>
+      </c>
+      <c r="D279">
         <v>5757.62</v>
-      </c>
-      <c r="D279">
-        <v>3387.53</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -4324,10 +4324,10 @@
         <v>104577.15</v>
       </c>
       <c r="C280">
+        <v>3377.55</v>
+      </c>
+      <c r="D280">
         <v>5693.65</v>
-      </c>
-      <c r="D280">
-        <v>3377.55</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -4338,10 +4338,10 @@
         <v>104205.69</v>
       </c>
       <c r="C281">
+        <v>3365.08</v>
+      </c>
+      <c r="D281">
         <v>5694.67</v>
-      </c>
-      <c r="D281">
-        <v>3365.08</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -4352,10 +4352,10 @@
         <v>105387.15</v>
       </c>
       <c r="C282">
+        <v>3383.79</v>
+      </c>
+      <c r="D282">
         <v>5595.89</v>
-      </c>
-      <c r="D282">
-        <v>3383.79</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -4366,10 +4366,10 @@
         <v>102977.8</v>
       </c>
       <c r="C283">
+        <v>3374.31</v>
+      </c>
+      <c r="D283">
         <v>5642.47</v>
-      </c>
-      <c r="D283">
-        <v>3374.31</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -4380,10 +4380,10 @@
         <v>104824.8</v>
       </c>
       <c r="C284">
+        <v>3358.35</v>
+      </c>
+      <c r="D284">
         <v>5553.93</v>
-      </c>
-      <c r="D284">
-        <v>3358.35</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -4394,10 +4394,10 @@
         <v>103591.75</v>
       </c>
       <c r="C285">
+        <v>3366.58</v>
+      </c>
+      <c r="D285">
         <v>5501.73</v>
-      </c>
-      <c r="D285">
-        <v>3366.58</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -4408,10 +4408,10 @@
         <v>106150.71</v>
       </c>
       <c r="C286">
+        <v>3364.58</v>
+      </c>
+      <c r="D286">
         <v>5568.26</v>
-      </c>
-      <c r="D286">
-        <v>3364.58</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -4422,10 +4422,10 @@
         <v>105763.77</v>
       </c>
       <c r="C287">
+        <v>3332.65</v>
+      </c>
+      <c r="D287">
         <v>5512.47</v>
-      </c>
-      <c r="D287">
-        <v>3332.65</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -4436,10 +4436,10 @@
         <v>106544.03</v>
       </c>
       <c r="C288">
+        <v>3349.62</v>
+      </c>
+      <c r="D288">
         <v>5615.85</v>
-      </c>
-      <c r="D288">
-        <v>3349.62</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -4450,10 +4450,10 @@
         <v>106115.15</v>
       </c>
       <c r="C289">
+        <v>3340.39</v>
+      </c>
+      <c r="D289">
         <v>5571.84</v>
-      </c>
-      <c r="D289">
-        <v>3340.39</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -4464,10 +4464,10 @@
         <v>107350.13</v>
       </c>
       <c r="C290">
+        <v>3338.89</v>
+      </c>
+      <c r="D290">
         <v>5460.78</v>
-      </c>
-      <c r="D290">
-        <v>3338.89</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -4478,10 +4478,10 @@
         <v>106321.84</v>
       </c>
       <c r="C291">
+        <v>3310.7</v>
+      </c>
+      <c r="D291">
         <v>5424.45</v>
-      </c>
-      <c r="D291">
-        <v>3310.7</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -4492,10 +4492,10 @@
         <v>105205.71</v>
       </c>
       <c r="C292">
+        <v>3294.74</v>
+      </c>
+      <c r="D292">
         <v>5412.67</v>
-      </c>
-      <c r="D292">
-        <v>3294.74</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -4506,10 +4506,10 @@
         <v>106549.2</v>
       </c>
       <c r="C293">
+        <v>3279.77</v>
+      </c>
+      <c r="D293">
         <v>5455.15</v>
-      </c>
-      <c r="D293">
-        <v>3279.77</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -4520,10 +4520,10 @@
         <v>106549.2</v>
       </c>
       <c r="C294">
+        <v>3263.31</v>
+      </c>
+      <c r="D294">
         <v>5354.84</v>
-      </c>
-      <c r="D294">
-        <v>3263.31</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -4534,10 +4534,10 @@
         <v>109380.86</v>
       </c>
       <c r="C295">
+        <v>3264.55</v>
+      </c>
+      <c r="D295">
         <v>5279.61</v>
-      </c>
-      <c r="D295">
-        <v>3264.55</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -4548,10 +4548,10 @@
         <v>108951.98</v>
       </c>
       <c r="C296">
+        <v>3255.82</v>
+      </c>
+      <c r="D296">
         <v>5298.56</v>
-      </c>
-      <c r="D296">
-        <v>3255.82</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -4562,10 +4562,10 @@
         <v>107375.96</v>
       </c>
       <c r="C297">
+        <v>3210.17</v>
+      </c>
+      <c r="D297">
         <v>5290.88</v>
-      </c>
-      <c r="D297">
-        <v>3210.17</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -4576,10 +4576,10 @@
         <v>107665.33</v>
       </c>
       <c r="C298">
+        <v>3234.87</v>
+      </c>
+      <c r="D298">
         <v>5275.51</v>
-      </c>
-      <c r="D298">
-        <v>3234.87</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -4590,10 +4590,10 @@
         <v>105960.13</v>
       </c>
       <c r="C299">
+        <v>3202.69</v>
+      </c>
+      <c r="D299">
         <v>5363.61</v>
-      </c>
-      <c r="D299">
-        <v>3202.69</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -4604,10 +4604,10 @@
         <v>105892.95</v>
       </c>
       <c r="C300">
+        <v>3226.14</v>
+      </c>
+      <c r="D300">
         <v>5339.54</v>
-      </c>
-      <c r="D300">
-        <v>3226.14</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -4618,10 +4618,10 @@
         <v>107990.87</v>
       </c>
       <c r="C301">
+        <v>3267.8</v>
+      </c>
+      <c r="D301">
         <v>5248.88</v>
-      </c>
-      <c r="D301">
-        <v>3267.8</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -4632,10 +4632,10 @@
         <v>107923.69</v>
       </c>
       <c r="C302">
+        <v>3257.57</v>
+      </c>
+      <c r="D302">
         <v>5299.58</v>
-      </c>
-      <c r="D302">
-        <v>3257.57</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -4646,10 +4646,10 @@
         <v>107706.67</v>
       </c>
       <c r="C303">
+        <v>3238.86</v>
+      </c>
+      <c r="D303">
         <v>5466.04</v>
-      </c>
-      <c r="D303">
-        <v>3238.86</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -4660,10 +4660,10 @@
         <v>106755.89</v>
       </c>
       <c r="C304">
+        <v>3212.67</v>
+      </c>
+      <c r="D304">
         <v>5526.48</v>
-      </c>
-      <c r="D304">
-        <v>3212.67</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -4674,10 +4674,10 @@
         <v>104260.1</v>
       </c>
       <c r="C305">
+        <v>3192.21</v>
+      </c>
+      <c r="D305">
         <v>5466.04</v>
-      </c>
-      <c r="D305">
-        <v>3192.21</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -4688,10 +4688,10 @@
         <v>105458.9</v>
       </c>
       <c r="C306">
+        <v>3218.9</v>
+      </c>
+      <c r="D306">
         <v>5500.87</v>
-      </c>
-      <c r="D306">
-        <v>3218.9</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -4702,10 +4702,10 @@
         <v>104006.9</v>
       </c>
       <c r="C307">
+        <v>3183.98</v>
+      </c>
+      <c r="D307">
         <v>5504.46</v>
-      </c>
-      <c r="D307">
-        <v>3183.98</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -4716,10 +4716,10 @@
         <v>101588.61</v>
       </c>
       <c r="C308">
+        <v>3146.06</v>
+      </c>
+      <c r="D308">
         <v>5540.82</v>
-      </c>
-      <c r="D308">
-        <v>3146.06</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -4730,10 +4730,10 @@
         <v>103242.14</v>
       </c>
       <c r="C309">
+        <v>3181.98</v>
+      </c>
+      <c r="D309">
         <v>5459.39</v>
-      </c>
-      <c r="D309">
-        <v>3181.98</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -4744,10 +4744,10 @@
         <v>102415.38</v>
       </c>
       <c r="C310">
+        <v>3140.08</v>
+      </c>
+      <c r="D310">
         <v>5478.34</v>
-      </c>
-      <c r="D310">
-        <v>3140.08</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -4758,10 +4758,10 @@
         <v>103500.51</v>
       </c>
       <c r="C311">
+        <v>3161.03</v>
+      </c>
+      <c r="D311">
         <v>5473.22</v>
-      </c>
-      <c r="D311">
-        <v>3161.03</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -4772,10 +4772,10 @@
         <v>101226.91</v>
       </c>
       <c r="C312">
+        <v>3137.08</v>
+      </c>
+      <c r="D312">
         <v>5512.14</v>
-      </c>
-      <c r="D312">
-        <v>3137.08</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -4786,10 +4786,10 @@
         <v>102580.73</v>
       </c>
       <c r="C313">
+        <v>3172.01</v>
+      </c>
+      <c r="D313">
         <v>5495.24</v>
-      </c>
-      <c r="D313">
-        <v>3172.01</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -4800,10 +4800,10 @@
         <v>100234.79</v>
       </c>
       <c r="C314">
+        <v>3127.11</v>
+      </c>
+      <c r="D314">
         <v>5447.61</v>
-      </c>
-      <c r="D314">
-        <v>3127.11</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -4814,10 +4814,10 @@
         <v>99707.73</v>
       </c>
       <c r="C315">
+        <v>3137.33</v>
+      </c>
+      <c r="D315">
         <v>5502.41</v>
-      </c>
-      <c r="D315">
-        <v>3137.33</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -4828,10 +4828,10 @@
         <v>99346.02</v>
       </c>
       <c r="C316">
+        <v>3110.39</v>
+      </c>
+      <c r="D316">
         <v>5453.75</v>
-      </c>
-      <c r="D316">
-        <v>3110.39</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -4842,10 +4842,10 @@
         <v>98281.56</v>
       </c>
       <c r="C317">
+        <v>3081.71</v>
+      </c>
+      <c r="D317">
         <v>5598.7</v>
-      </c>
-      <c r="D317">
-        <v>3081.71</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -4856,10 +4856,10 @@
         <v>99397.69</v>
       </c>
       <c r="C318">
+        <v>3067.24</v>
+      </c>
+      <c r="D318">
         <v>5545.43</v>
-      </c>
-      <c r="D318">
-        <v>3067.24</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -4870,10 +4870,10 @@
         <v>96576.36</v>
       </c>
       <c r="C319">
+        <v>3070.73</v>
+      </c>
+      <c r="D319">
         <v>5626.99</v>
-      </c>
-      <c r="D319">
-        <v>3070.73</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -4884,10 +4884,10 @@
         <v>99408.02</v>
       </c>
       <c r="C320">
+        <v>3145.07</v>
+      </c>
+      <c r="D320">
         <v>5503.89</v>
-      </c>
-      <c r="D320">
-        <v>3145.07</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -4898,10 +4898,10 @@
         <v>97894.01</v>
       </c>
       <c r="C321">
+        <v>3120.88</v>
+      </c>
+      <c r="D321">
         <v>5490.55</v>
-      </c>
-      <c r="D321">
-        <v>3120.88</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -4912,10 +4912,10 @@
         <v>99056.65</v>
       </c>
       <c r="C322">
+        <v>3197.26</v>
+      </c>
+      <c r="D322">
         <v>5290.5</v>
-      </c>
-      <c r="D322">
-        <v>3197.26</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -4926,10 +4926,10 @@
         <v>99004.98</v>
       </c>
       <c r="C323">
+        <v>3187.58</v>
+      </c>
+      <c r="D323">
         <v>5391.55</v>
-      </c>
-      <c r="D323">
-        <v>3187.58</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -4940,10 +4940,10 @@
         <v>99470.03</v>
       </c>
       <c r="C324">
+        <v>3136.16</v>
+      </c>
+      <c r="D324">
         <v>5454.13</v>
-      </c>
-      <c r="D324">
-        <v>3136.16</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -4954,10 +4954,10 @@
         <v>99128.99</v>
       </c>
       <c r="C325">
+        <v>3181.22</v>
+      </c>
+      <c r="D325">
         <v>5523.89</v>
-      </c>
-      <c r="D325">
-        <v>3181.22</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -4968,10 +4968,10 @@
         <v>98756.95</v>
       </c>
       <c r="C326">
+        <v>3187.1</v>
+      </c>
+      <c r="D326">
         <v>5364.36</v>
-      </c>
-      <c r="D326">
-        <v>3187.1</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -4982,10 +4982,10 @@
         <v>97041.41</v>
       </c>
       <c r="C327">
+        <v>3195.28</v>
+      </c>
+      <c r="D327">
         <v>5384.88</v>
-      </c>
-      <c r="D327">
-        <v>3195.28</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -4996,10 +4996,10 @@
         <v>95819.33</v>
       </c>
       <c r="C328">
+        <v>3129.07</v>
+      </c>
+      <c r="D328">
         <v>5286.91</v>
-      </c>
-      <c r="D328">
-        <v>3129.07</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -5010,10 +5010,10 @@
         <v>96311.27</v>
       </c>
       <c r="C329">
+        <v>3103.77</v>
+      </c>
+      <c r="D329">
         <v>5186.37</v>
-      </c>
-      <c r="D329">
-        <v>3103.77</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -5024,10 +5024,10 @@
         <v>97688.7</v>
       </c>
       <c r="C330">
+        <v>3257.9</v>
+      </c>
+      <c r="D330">
         <v>5110.46</v>
-      </c>
-      <c r="D330">
-        <v>3257.9</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -5038,10 +5038,10 @@
         <v>99961.98</v>
       </c>
       <c r="C331">
+        <v>3271.44</v>
+      </c>
+      <c r="D331">
         <v>5033</v>
-      </c>
-      <c r="D331">
-        <v>3271.44</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -5052,10 +5052,10 @@
         <v>101147.81</v>
       </c>
       <c r="C332">
+        <v>3312.6</v>
+      </c>
+      <c r="D332">
         <v>4945.29</v>
-      </c>
-      <c r="D332">
-        <v>3312.6</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -5066,10 +5066,10 @@
         <v>97818.16</v>
       </c>
       <c r="C333">
+        <v>3263.52</v>
+      </c>
+      <c r="D333">
         <v>5100.71</v>
-      </c>
-      <c r="D333">
-        <v>3263.52</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -5080,10 +5080,10 @@
         <v>97160.51</v>
       </c>
       <c r="C334">
+        <v>3186.58</v>
+      </c>
+      <c r="D334">
         <v>5257.67</v>
-      </c>
-      <c r="D334">
-        <v>3186.58</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -5094,10 +5094,10 @@
         <v>95974.68</v>
       </c>
       <c r="C335">
+        <v>3193.49</v>
+      </c>
+      <c r="D335">
         <v>5204.33</v>
-      </c>
-      <c r="D335">
-        <v>3193.49</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -5108,10 +5108,10 @@
         <v>94731.89</v>
       </c>
       <c r="C336">
+        <v>3163.07</v>
+      </c>
+      <c r="D336">
         <v>5345.39</v>
-      </c>
-      <c r="D336">
-        <v>3163.07</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -5122,10 +5122,10 @@
         <v>91997.75</v>
       </c>
       <c r="C337">
+        <v>3126.77</v>
+      </c>
+      <c r="D337">
         <v>5513.12</v>
-      </c>
-      <c r="D337">
-        <v>3126.77</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -5136,10 +5136,10 @@
         <v>90692.81</v>
       </c>
       <c r="C338">
+        <v>3134.19</v>
+      </c>
+      <c r="D338">
         <v>5484.91</v>
-      </c>
-      <c r="D338">
-        <v>3134.19</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -5150,10 +5150,10 @@
         <v>89683.04</v>
       </c>
       <c r="C339">
+        <v>3107.09</v>
+      </c>
+      <c r="D339">
         <v>5556.21</v>
-      </c>
-      <c r="D339">
-        <v>3107.09</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -5164,10 +5164,10 @@
         <v>91246.89</v>
       </c>
       <c r="C340">
+        <v>3113.23</v>
+      </c>
+      <c r="D340">
         <v>5419.05</v>
-      </c>
-      <c r="D340">
-        <v>3113.23</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -5178,10 +5178,10 @@
         <v>89154.86</v>
       </c>
       <c r="C341">
+        <v>3072.08</v>
+      </c>
+      <c r="D341">
         <v>5501.75</v>
-      </c>
-      <c r="D341">
-        <v>3072.08</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -5192,10 +5192,10 @@
         <v>89077.18</v>
       </c>
       <c r="C342">
+        <v>3076.42</v>
+      </c>
+      <c r="D342">
         <v>5594.22</v>
-      </c>
-      <c r="D342">
-        <v>3076.42</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -5206,10 +5206,10 @@
         <v>87316.56</v>
       </c>
       <c r="C343">
+        <v>3031.18</v>
+      </c>
+      <c r="D343">
         <v>5686.69</v>
-      </c>
-      <c r="D343">
-        <v>3031.18</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -5220,10 +5220,10 @@
         <v>86249.83</v>
       </c>
       <c r="C344">
+        <v>3020.19</v>
+      </c>
+      <c r="D344">
         <v>5709.8</v>
-      </c>
-      <c r="D344">
-        <v>3020.19</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -5234,10 +5234,10 @@
         <v>84525.45</v>
       </c>
       <c r="C345">
+        <v>3046.77</v>
+      </c>
+      <c r="D345">
         <v>5851.58</v>
-      </c>
-      <c r="D345">
-        <v>3046.77</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -5248,10 +5248,10 @@
         <v>83784.960000000006</v>
       </c>
       <c r="C346">
+        <v>2994.63</v>
+      </c>
+      <c r="D346">
         <v>5919.91</v>
-      </c>
-      <c r="D346">
-        <v>2994.63</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -5262,10 +5262,10 @@
         <v>84396</v>
       </c>
       <c r="C347">
+        <v>3022.74</v>
+      </c>
+      <c r="D347">
         <v>5881.89</v>
-      </c>
-      <c r="D347">
-        <v>3022.74</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -5276,10 +5276,10 @@
         <v>80356.92</v>
       </c>
       <c r="C348">
+        <v>2924.08</v>
+      </c>
+      <c r="D348">
         <v>6021.62</v>
-      </c>
-      <c r="D348">
-        <v>2924.08</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -5290,10 +5290,10 @@
         <v>82236.639999999999</v>
       </c>
       <c r="C349">
+        <v>2913.6</v>
+      </c>
+      <c r="D349">
         <v>5982.06</v>
-      </c>
-      <c r="D349">
-        <v>2913.6</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -5304,10 +5304,10 @@
         <v>81299.37</v>
       </c>
       <c r="C350">
+        <v>2888.81</v>
+      </c>
+      <c r="D350">
         <v>6050.39</v>
-      </c>
-      <c r="D350">
-        <v>2888.81</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -5318,10 +5318,10 @@
         <v>80367.27</v>
       </c>
       <c r="C351">
+        <v>2863.76</v>
+      </c>
+      <c r="D351">
         <v>5845.93</v>
-      </c>
-      <c r="D351">
-        <v>2863.76</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -5332,10 +5332,10 @@
         <v>81817.2</v>
       </c>
       <c r="C352">
+        <v>2985.43</v>
+      </c>
+      <c r="D352">
         <v>5776.51</v>
-      </c>
-      <c r="D352">
-        <v>2985.43</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -5346,10 +5346,10 @@
         <v>83489.789999999994</v>
       </c>
       <c r="C353">
+        <v>3000.76</v>
+      </c>
+      <c r="D353">
         <v>5704.11</v>
-      </c>
-      <c r="D353">
-        <v>3000.76</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -5360,10 +5360,10 @@
         <v>81682.559999999998</v>
       </c>
       <c r="C354">
+        <v>2962.68</v>
+      </c>
+      <c r="D354">
         <v>5798.33</v>
-      </c>
-      <c r="D354">
-        <v>2962.68</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -5374,10 +5374,10 @@
         <v>81553.11</v>
       </c>
       <c r="C355">
+        <v>2893.92</v>
+      </c>
+      <c r="D355">
         <v>5679.81</v>
-      </c>
-      <c r="D355">
-        <v>2893.92</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -5388,10 +5388,10 @@
         <v>83163.56</v>
       </c>
       <c r="C356">
+        <v>2928.17</v>
+      </c>
+      <c r="D356">
         <v>5541.96</v>
-      </c>
-      <c r="D356">
-        <v>2928.17</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -5402,10 +5402,10 @@
         <v>81910.41</v>
       </c>
       <c r="C357">
+        <v>2907.72</v>
+      </c>
+      <c r="D357">
         <v>5508.24</v>
-      </c>
-      <c r="D357">
-        <v>2907.72</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -5416,10 +5416,10 @@
         <v>82956.429999999993</v>
       </c>
       <c r="C358">
+        <v>2954.24</v>
+      </c>
+      <c r="D358">
         <v>5450.72</v>
-      </c>
-      <c r="D358">
-        <v>2954.24</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -5430,10 +5430,10 @@
         <v>87244.06</v>
       </c>
       <c r="C359">
+        <v>3031.69</v>
+      </c>
+      <c r="D359">
         <v>5296.99</v>
-      </c>
-      <c r="D359">
-        <v>3031.69</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -5444,10 +5444,10 @@
         <v>84437.42</v>
       </c>
       <c r="C360">
+        <v>2940.44</v>
+      </c>
+      <c r="D360">
         <v>5459.34</v>
-      </c>
-      <c r="D360">
-        <v>2940.44</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -5458,10 +5458,10 @@
         <v>81040.45</v>
       </c>
       <c r="C361">
+        <v>2944.53</v>
+      </c>
+      <c r="D361">
         <v>5617.72</v>
-      </c>
-      <c r="D361">
-        <v>2944.53</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -5472,10 +5472,10 @@
         <v>79538.75</v>
       </c>
       <c r="C362">
+        <v>2897.5</v>
+      </c>
+      <c r="D362">
         <v>5549.7</v>
-      </c>
-      <c r="D362">
-        <v>2897.5</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -5486,10 +5486,10 @@
         <v>82386.81</v>
       </c>
       <c r="C363">
+        <v>2854.56</v>
+      </c>
+      <c r="D363">
         <v>5500.06</v>
-      </c>
-      <c r="D363">
-        <v>2854.56</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -5500,10 +5500,10 @@
         <v>83386.23</v>
       </c>
       <c r="C364">
+        <v>2869.89</v>
+      </c>
+      <c r="D364">
         <v>5425.09</v>
-      </c>
-      <c r="D364">
-        <v>2869.89</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -5514,10 +5514,10 @@
         <v>82386.81</v>
       </c>
       <c r="C365">
+        <v>2893.41</v>
+      </c>
+      <c r="D365">
         <v>5281.6</v>
-      </c>
-      <c r="D365">
-        <v>2893.41</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -5528,10 +5528,10 @@
         <v>82127.899999999994</v>
       </c>
       <c r="C366">
+        <v>2937.63</v>
+      </c>
+      <c r="D366">
         <v>5204.1499999999996</v>
-      </c>
-      <c r="D366">
-        <v>2937.63</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -5542,10 +5542,10 @@
         <v>82195.22</v>
       </c>
       <c r="C367">
+        <v>2895.45</v>
+      </c>
+      <c r="D367">
         <v>5204.6499999999996</v>
-      </c>
-      <c r="D367">
-        <v>2895.45</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -5556,10 +5556,10 @@
         <v>82355.740000000005</v>
       </c>
       <c r="C368">
+        <v>2842.29</v>
+      </c>
+      <c r="D368">
         <v>5209.6099999999997</v>
-      </c>
-      <c r="D368">
-        <v>2842.29</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -5570,10 +5570,10 @@
         <v>83059.990000000005</v>
       </c>
       <c r="C369">
+        <v>2914.37</v>
+      </c>
+      <c r="D369">
         <v>5135.6400000000003</v>
-      </c>
-      <c r="D369">
-        <v>2914.37</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -5584,10 +5584,10 @@
         <v>82096.649999999994</v>
       </c>
       <c r="C370">
+        <v>2844.85</v>
+      </c>
+      <c r="D370">
         <v>5171.38</v>
-      </c>
-      <c r="D370">
-        <v>2844.85</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -5598,10 +5598,10 @@
         <v>80993.460000000006</v>
       </c>
       <c r="C371">
+        <v>2872.19</v>
+      </c>
+      <c r="D371">
         <v>5078.04</v>
-      </c>
-      <c r="D371">
-        <v>2872.19</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -5612,10 +5612,10 @@
         <v>81925.73</v>
       </c>
       <c r="C372">
+        <v>2813.66</v>
+      </c>
+      <c r="D372">
         <v>5088.97</v>
-      </c>
-      <c r="D372">
-        <v>2813.66</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -5626,10 +5626,10 @@
         <v>79341.279999999999</v>
       </c>
       <c r="C373">
+        <v>2714.23</v>
+      </c>
+      <c r="D373">
         <v>5193.7299999999996</v>
-      </c>
-      <c r="D373">
-        <v>2714.23</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -5640,10 +5640,10 @@
         <v>77067.570000000007</v>
       </c>
       <c r="C374">
+        <v>2716.02</v>
+      </c>
+      <c r="D374">
         <v>5257.28</v>
-      </c>
-      <c r="D374">
-        <v>2716.02</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -5654,10 +5654,10 @@
         <v>71784.72</v>
       </c>
       <c r="C375">
+        <v>2545.79</v>
+      </c>
+      <c r="D375">
         <v>5326.29</v>
-      </c>
-      <c r="D375">
-        <v>2545.79</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -5668,10 +5668,10 @@
         <v>74840.490000000005</v>
       </c>
       <c r="C376">
+        <v>2595.38</v>
+      </c>
+      <c r="D376">
         <v>5228.4799999999996</v>
-      </c>
-      <c r="D376">
-        <v>2595.38</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -5682,10 +5682,10 @@
         <v>73752.84</v>
       </c>
       <c r="C377">
+        <v>2531.9899999999998</v>
+      </c>
+      <c r="D377">
         <v>5223.51</v>
-      </c>
-      <c r="D377">
-        <v>2531.9899999999998</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -5696,10 +5696,10 @@
         <v>74529.73</v>
       </c>
       <c r="C378">
+        <v>2636.53</v>
+      </c>
+      <c r="D378">
         <v>5177.34</v>
-      </c>
-      <c r="D378">
-        <v>2636.53</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -5710,10 +5710,10 @@
         <v>77854.820000000007</v>
       </c>
       <c r="C379">
+        <v>2683.82</v>
+      </c>
+      <c r="D379">
         <v>5167.41</v>
-      </c>
-      <c r="D379">
-        <v>2683.82</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -5724,10 +5724,10 @@
         <v>76083.509999999995</v>
       </c>
       <c r="C380">
+        <v>2588.48</v>
+      </c>
+      <c r="D380">
         <v>5073.9399999999996</v>
-      </c>
-      <c r="D380">
-        <v>2588.48</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -5738,10 +5738,10 @@
         <v>80434.100000000006</v>
       </c>
       <c r="C381">
+        <v>2692.51</v>
+      </c>
+      <c r="D381">
         <v>4995.38</v>
-      </c>
-      <c r="D381">
-        <v>2692.51</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -5752,10 +5752,10 @@
         <v>77274.75</v>
       </c>
       <c r="C382">
+        <v>2556.02</v>
+      </c>
+      <c r="D382">
         <v>5008.8</v>
-      </c>
-      <c r="D382">
-        <v>2556.02</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -5766,10 +5766,10 @@
         <v>71473.960000000006</v>
       </c>
       <c r="C383">
+        <v>2504.9</v>
+      </c>
+      <c r="D383">
         <v>5075.43</v>
-      </c>
-      <c r="D383">
-        <v>2504.9</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -5780,10 +5780,10 @@
         <v>66211.820000000007</v>
       </c>
       <c r="C384">
+        <v>2271.5300000000002</v>
+      </c>
+      <c r="D384">
         <v>5119.68</v>
-      </c>
-      <c r="D384">
-        <v>2271.5300000000002</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -5794,10 +5794,10 @@
         <v>68770.38</v>
       </c>
       <c r="C385">
+        <v>2341.31</v>
+      </c>
+      <c r="D385">
         <v>5039.13</v>
-      </c>
-      <c r="D385">
-        <v>2341.31</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -5808,10 +5808,10 @@
         <v>67848.47</v>
       </c>
       <c r="C386">
+        <v>2483.42</v>
+      </c>
+      <c r="D386">
         <v>5068.97</v>
-      </c>
-      <c r="D386">
-        <v>2483.42</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -5822,10 +5822,10 @@
         <v>70541.69</v>
       </c>
       <c r="C387">
+        <v>2520.02</v>
+      </c>
+      <c r="D387">
         <v>5079.41</v>
-      </c>
-      <c r="D387">
-        <v>2520.02</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -5836,10 +5836,10 @@
         <v>75928.13</v>
       </c>
       <c r="C388">
+        <v>2615.6999999999998</v>
+      </c>
+      <c r="D388">
         <v>4982.95</v>
-      </c>
-      <c r="D388">
-        <v>2615.6999999999998</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -5850,10 +5850,10 @@
         <v>72799.850000000006</v>
       </c>
       <c r="C389">
+        <v>2529.4299999999998</v>
+      </c>
+      <c r="D389">
         <v>4968.03</v>
-      </c>
-      <c r="D389">
-        <v>2529.4299999999998</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -5864,10 +5864,10 @@
         <v>82889.08</v>
       </c>
       <c r="C390">
+        <v>2762.61</v>
+      </c>
+      <c r="D390">
         <v>4807.9399999999996</v>
-      </c>
-      <c r="D390">
-        <v>2762.61</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -5878,10 +5878,10 @@
         <v>74711.009999999995</v>
       </c>
       <c r="C391">
+        <v>2573.35</v>
+      </c>
+      <c r="D391">
         <v>4774.13</v>
-      </c>
-      <c r="D391">
-        <v>2573.35</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -5892,10 +5892,10 @@
         <v>83469.16</v>
       </c>
       <c r="C392">
+        <v>2867.18</v>
+      </c>
+      <c r="D392">
         <v>4804.45</v>
-      </c>
-      <c r="D392">
-        <v>2867.18</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -5906,10 +5906,10 @@
         <v>95946.02</v>
       </c>
       <c r="C393">
+        <v>3014.35</v>
+      </c>
+      <c r="D393">
         <v>4627.45</v>
-      </c>
-      <c r="D393">
-        <v>3014.35</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -5920,10 +5920,10 @@
         <v>89166.36</v>
       </c>
       <c r="C394">
+        <v>2869.27</v>
+      </c>
+      <c r="D394">
         <v>4706.51</v>
-      </c>
-      <c r="D394">
-        <v>2869.27</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -5934,10 +5934,10 @@
         <v>101555.17</v>
       </c>
       <c r="C395">
+        <v>3098.79</v>
+      </c>
+      <c r="D395">
         <v>4609.05</v>
-      </c>
-      <c r="D395">
-        <v>3098.79</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -5948,10 +5948,10 @@
         <v>106278.67</v>
       </c>
       <c r="C396">
+        <v>3149.77</v>
+      </c>
+      <c r="D396">
         <v>4591.16</v>
-      </c>
-      <c r="D396">
-        <v>3149.77</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -5962,10 +5962,10 @@
         <v>111266.31</v>
       </c>
       <c r="C397">
+        <v>3262.44</v>
+      </c>
+      <c r="D397">
         <v>4569.78</v>
-      </c>
-      <c r="D397">
-        <v>3262.44</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -5976,10 +5976,10 @@
         <v>109386.23</v>
       </c>
       <c r="C398">
+        <v>3135.65</v>
+      </c>
+      <c r="D398">
         <v>4499.17</v>
-      </c>
-      <c r="D398">
-        <v>3135.65</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -5990,10 +5990,10 @@
         <v>111354.36</v>
       </c>
       <c r="C399">
+        <v>3222.7</v>
+      </c>
+      <c r="D399">
         <v>4457.41</v>
-      </c>
-      <c r="D399">
-        <v>3222.7</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -6004,10 +6004,10 @@
         <v>108676.67</v>
       </c>
       <c r="C400">
+        <v>3096.7</v>
+      </c>
+      <c r="D400">
         <v>4471.83</v>
-      </c>
-      <c r="D400">
-        <v>3096.7</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -6018,10 +6018,10 @@
         <v>106765.52</v>
       </c>
       <c r="C401">
+        <v>3142.19</v>
+      </c>
+      <c r="D401">
         <v>4470.83</v>
-      </c>
-      <c r="D401">
-        <v>3142.19</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -6032,10 +6032,10 @@
         <v>109888.62</v>
       </c>
       <c r="C402">
+        <v>3267.66</v>
+      </c>
+      <c r="D402">
         <v>4435.46</v>
-      </c>
-      <c r="D402">
-        <v>3267.66</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -6046,10 +6046,10 @@
         <v>118372.27</v>
       </c>
       <c r="C403">
+        <v>3487.25</v>
+      </c>
+      <c r="D403">
         <v>4374.6899999999996</v>
-      </c>
-      <c r="D403">
-        <v>3487.25</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -6060,10 +6060,10 @@
         <v>119019.68</v>
       </c>
       <c r="C404">
+        <v>3527.25</v>
+      </c>
+      <c r="D404">
         <v>4379.17</v>
-      </c>
-      <c r="D404">
-        <v>3527.25</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -6074,10 +6074,10 @@
         <v>121174.26</v>
       </c>
       <c r="C405">
+        <v>3544.5</v>
+      </c>
+      <c r="D405">
         <v>4349.78</v>
-      </c>
-      <c r="D405">
-        <v>3544.5</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -6088,10 +6088,10 @@
         <v>119910.52</v>
       </c>
       <c r="C406">
+        <v>3525.94</v>
+      </c>
+      <c r="D406">
         <v>4341.32</v>
-      </c>
-      <c r="D406">
-        <v>3525.94</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -6102,10 +6102,10 @@
         <v>119848.37</v>
       </c>
       <c r="C407">
+        <v>3544.76</v>
+      </c>
+      <c r="D407">
         <v>4313.42</v>
-      </c>
-      <c r="D407">
-        <v>3544.76</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -6116,10 +6116,10 @@
         <v>119097.37</v>
       </c>
       <c r="C408">
+        <v>3531.95</v>
+      </c>
+      <c r="D408">
         <v>4284.03</v>
-      </c>
-      <c r="D408">
-        <v>3531.95</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -6130,10 +6130,10 @@
         <v>120361.11</v>
       </c>
       <c r="C409">
+        <v>3529.08</v>
+      </c>
+      <c r="D409">
         <v>4337.33</v>
-      </c>
-      <c r="D409">
-        <v>3529.08</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -6144,10 +6144,10 @@
         <v>121557.53</v>
       </c>
       <c r="C410">
+        <v>3535.61</v>
+      </c>
+      <c r="D410">
         <v>4342.8100000000004</v>
-      </c>
-      <c r="D410">
-        <v>3535.61</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -6158,10 +6158,10 @@
         <v>120293.78</v>
       </c>
       <c r="C411">
+        <v>3509.73</v>
+      </c>
+      <c r="D411">
         <v>4318.3999999999996</v>
-      </c>
-      <c r="D411">
-        <v>3509.73</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -6172,10 +6172,10 @@
         <v>117881.03</v>
       </c>
       <c r="C412">
+        <v>3502.94</v>
+      </c>
+      <c r="D412">
         <v>4314.42</v>
-      </c>
-      <c r="D412">
-        <v>3502.94</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -6186,10 +6186,10 @@
         <v>118365.66</v>
       </c>
       <c r="C413">
+        <v>3480.19</v>
+      </c>
+      <c r="D413">
         <v>4310.93</v>
-      </c>
-      <c r="D413">
-        <v>3480.19</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -6200,10 +6200,10 @@
         <v>120116.6</v>
       </c>
       <c r="C414">
+        <v>3498.75</v>
+      </c>
+      <c r="D414">
         <v>4272.07</v>
-      </c>
-      <c r="D414">
-        <v>3498.75</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -6214,10 +6214,10 @@
         <v>121367.28</v>
       </c>
       <c r="C415">
+        <v>3485.94</v>
+      </c>
+      <c r="D415">
         <v>4225.25</v>
-      </c>
-      <c r="D415">
-        <v>3485.94</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -6228,10 +6228,10 @@
         <v>120554.34</v>
       </c>
       <c r="C416">
+        <v>3450.13</v>
+      </c>
+      <c r="D416">
         <v>4245.17</v>
-      </c>
-      <c r="D416">
-        <v>3450.13</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -6242,10 +6242,10 @@
         <v>119605.91</v>
       </c>
       <c r="C417">
+        <v>3392.36</v>
+      </c>
+      <c r="D417">
         <v>4237.7</v>
-      </c>
-      <c r="D417">
-        <v>3392.36</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -6256,10 +6256,10 @@
         <v>118688.75</v>
       </c>
       <c r="C418">
+        <v>3370.4</v>
+      </c>
+      <c r="D418">
         <v>4273.07</v>
-      </c>
-      <c r="D418">
-        <v>3370.4</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -6270,10 +6270,10 @@
         <v>120377.16</v>
       </c>
       <c r="C419">
+        <v>3430.26</v>
+      </c>
+      <c r="D419">
         <v>4233.22</v>
-      </c>
-      <c r="D419">
-        <v>3430.26</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -6284,10 +6284,10 @@
         <v>120418.85</v>
       </c>
       <c r="C420">
+        <v>3422.68</v>
+      </c>
+      <c r="D420">
         <v>4220.75</v>
-      </c>
-      <c r="D420">
-        <v>3422.68</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -6298,10 +6298,10 @@
         <v>121507.98</v>
       </c>
       <c r="C421">
+        <v>3429.22</v>
+      </c>
+      <c r="D421">
         <v>4183.8500000000004</v>
-      </c>
-      <c r="D421">
-        <v>3429.22</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -6312,10 +6312,10 @@
         <v>119512.11</v>
       </c>
       <c r="C422">
+        <v>3390.01</v>
+      </c>
+      <c r="D422">
         <v>4197.8100000000004</v>
-      </c>
-      <c r="D422">
-        <v>3390.01</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -6326,10 +6326,10 @@
         <v>123503.84</v>
       </c>
       <c r="C423">
+        <v>3440.2</v>
+      </c>
+      <c r="D423">
         <v>4172.38</v>
-      </c>
-      <c r="D423">
-        <v>3440.2</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -6340,10 +6340,10 @@
         <v>124843.1</v>
       </c>
       <c r="C424">
+        <v>3476.79</v>
+      </c>
+      <c r="D424">
         <v>4161.91</v>
-      </c>
-      <c r="D424">
-        <v>3476.79</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -6354,10 +6354,10 @@
         <v>123555.95</v>
       </c>
       <c r="C425">
+        <v>3473.92</v>
+      </c>
+      <c r="D425">
         <v>4173.88</v>
-      </c>
-      <c r="D425">
-        <v>3473.92</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -6368,10 +6368,10 @@
         <v>122159.37</v>
       </c>
       <c r="C426">
+        <v>3475.23</v>
+      </c>
+      <c r="D426">
         <v>4204.3</v>
-      </c>
-      <c r="D426">
-        <v>3475.23</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -6382,10 +6382,10 @@
         <v>124118.75</v>
       </c>
       <c r="C427">
+        <v>3477.84</v>
+      </c>
+      <c r="D427">
         <v>4183.3500000000004</v>
-      </c>
-      <c r="D427">
-        <v>3477.84</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -6396,10 +6396,10 @@
         <v>123816.51</v>
       </c>
       <c r="C428">
+        <v>3480.45</v>
+      </c>
+      <c r="D428">
         <v>4154.93</v>
-      </c>
-      <c r="D428">
-        <v>3480.45</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -6410,10 +6410,10 @@
         <v>121971.77</v>
       </c>
       <c r="C429">
+        <v>3467.38</v>
+      </c>
+      <c r="D429">
         <v>4177.87</v>
-      </c>
-      <c r="D429">
-        <v>3467.38</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -6424,10 +6424,10 @@
         <v>121721.63</v>
       </c>
       <c r="C430">
+        <v>3438.11</v>
+      </c>
+      <c r="D430">
         <v>4168.8900000000003</v>
-      </c>
-      <c r="D430">
-        <v>3438.11</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -6438,10 +6438,10 @@
         <v>122878.5</v>
       </c>
       <c r="C431">
+        <v>3434.18</v>
+      </c>
+      <c r="D431">
         <v>4126.5</v>
-      </c>
-      <c r="D431">
-        <v>3434.18</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -6452,10 +6452,10 @@
         <v>122852.45</v>
       </c>
       <c r="C432">
+        <v>3434.97</v>
+      </c>
+      <c r="D432">
         <v>4140.96</v>
-      </c>
-      <c r="D432">
-        <v>3434.97</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -6466,10 +6466,10 @@
         <v>120835.74</v>
       </c>
       <c r="C433">
+        <v>3414.06</v>
+      </c>
+      <c r="D433">
         <v>4090.1</v>
-      </c>
-      <c r="D433">
-        <v>3414.06</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -6480,10 +6480,10 @@
         <v>121268.26</v>
       </c>
       <c r="C434">
+        <v>3424.77</v>
+      </c>
+      <c r="D434">
         <v>4087.61</v>
-      </c>
-      <c r="D434">
-        <v>3424.77</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -6494,10 +6494,10 @@
         <v>121205.73</v>
       </c>
       <c r="C435">
+        <v>3407.78</v>
+      </c>
+      <c r="D435">
         <v>4058.19</v>
-      </c>
-      <c r="D435">
-        <v>3407.78</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -6508,10 +6508,10 @@
         <v>122055.15</v>
       </c>
       <c r="C436">
+        <v>3388.96</v>
+      </c>
+      <c r="D436">
         <v>4063.67</v>
-      </c>
-      <c r="D436">
-        <v>3388.96</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -6522,10 +6522,10 @@
         <v>122315.7</v>
       </c>
       <c r="C437">
+        <v>3392.1</v>
+      </c>
+      <c r="D437">
         <v>4056.69</v>
-      </c>
-      <c r="D437">
-        <v>3392.1</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -6536,10 +6536,10 @@
         <v>123279.76</v>
       </c>
       <c r="C438">
+        <v>3383.99</v>
+      </c>
+      <c r="D438">
         <v>4051.7</v>
-      </c>
-      <c r="D438">
-        <v>3383.99</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -6550,10 +6550,10 @@
         <v>124129.18</v>
       </c>
       <c r="C439">
+        <v>3403.6</v>
+      </c>
+      <c r="D439">
         <v>4019.79</v>
-      </c>
-      <c r="D439">
-        <v>3403.6</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -6564,10 +6564,10 @@
         <v>120658.56</v>
       </c>
       <c r="C440">
+        <v>3384.52</v>
+      </c>
+      <c r="D440">
         <v>4014.3</v>
-      </c>
-      <c r="D440">
-        <v>3384.52</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -6578,10 +6578,10 @@
         <v>121815.43</v>
       </c>
       <c r="C441">
+        <v>3389.48</v>
+      </c>
+      <c r="D441">
         <v>4040.23</v>
-      </c>
-      <c r="D441">
-        <v>3389.48</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -6592,10 +6592,10 @@
         <v>122670.06</v>
       </c>
       <c r="C442">
+        <v>3386.35</v>
+      </c>
+      <c r="D442">
         <v>4052.72</v>
-      </c>
-      <c r="D442">
-        <v>3386.35</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -6606,10 +6606,10 @@
         <v>121294.32</v>
       </c>
       <c r="C443">
+        <v>3373.28</v>
+      </c>
+      <c r="D443">
         <v>4080.2</v>
-      </c>
-      <c r="D443">
-        <v>3373.28</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -6620,10 +6620,10 @@
         <v>120637.72</v>
       </c>
       <c r="C444">
+        <v>3374.32</v>
+      </c>
+      <c r="D444">
         <v>4101.18</v>
-      </c>
-      <c r="D444">
-        <v>3374.32</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -6634,10 +6634,10 @@
         <v>120674.2</v>
       </c>
       <c r="C445">
+        <v>3358.37</v>
+      </c>
+      <c r="D445">
         <v>4067.71</v>
-      </c>
-      <c r="D445">
-        <v>3358.37</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -6648,10 +6648,10 @@
         <v>119835.2</v>
       </c>
       <c r="C446">
+        <v>3346.85</v>
+      </c>
+      <c r="D446">
         <v>4060.72</v>
-      </c>
-      <c r="D446">
-        <v>3346.85</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -6662,10 +6662,10 @@
         <v>118136.37</v>
       </c>
       <c r="C447">
+        <v>3350.78</v>
+      </c>
+      <c r="D447">
         <v>4066.21</v>
-      </c>
-      <c r="D447">
-        <v>3350.78</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -6676,10 +6676,10 @@
         <v>117737.44</v>
       </c>
       <c r="C448">
+        <v>3348.42</v>
+      </c>
+      <c r="D448">
         <v>4059.22</v>
-      </c>
-      <c r="D448">
-        <v>3348.42</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -6690,10 +6690,10 @@
         <v>118335.84</v>
       </c>
       <c r="C449">
+        <v>3324.06</v>
+      </c>
+      <c r="D449">
         <v>4107.68</v>
-      </c>
-      <c r="D449">
-        <v>3324.06</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -6704,10 +6704,10 @@
         <v>117879.17</v>
       </c>
       <c r="C450">
+        <v>3323.01</v>
+      </c>
+      <c r="D450">
         <v>4089.19</v>
-      </c>
-      <c r="D450">
-        <v>3323.01</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -6718,10 +6718,10 @@
         <v>116587.89</v>
       </c>
       <c r="C451">
+        <v>3298.91</v>
+      </c>
+      <c r="D451">
         <v>4123.67</v>
-      </c>
-      <c r="D451">
-        <v>3298.91</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -6732,10 +6732,10 @@
         <v>116304.44</v>
       </c>
       <c r="C452">
+        <v>3281.36</v>
+      </c>
+      <c r="D452">
         <v>4147.1499999999996</v>
-      </c>
-      <c r="D452">
-        <v>3281.36</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -6746,10 +6746,10 @@
         <v>116692.87</v>
       </c>
       <c r="C453">
+        <v>3290.01</v>
+      </c>
+      <c r="D453">
         <v>4142.1499999999996</v>
-      </c>
-      <c r="D453">
-        <v>3290.01</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -6760,10 +6760,10 @@
         <v>116671.87</v>
       </c>
       <c r="C454">
+        <v>3297.87</v>
+      </c>
+      <c r="D454">
         <v>4142.1499999999996</v>
-      </c>
-      <c r="D454">
-        <v>3297.87</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -6774,10 +6774,10 @@
         <v>116230.95</v>
       </c>
       <c r="C455">
+        <v>3268</v>
+      </c>
+      <c r="D455">
         <v>4185.62</v>
-      </c>
-      <c r="D455">
-        <v>3268</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -6788,10 +6788,10 @@
         <v>115963.24</v>
       </c>
       <c r="C456">
+        <v>3262.77</v>
+      </c>
+      <c r="D456">
         <v>4209.6000000000004</v>
-      </c>
-      <c r="D456">
-        <v>3262.77</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -6802,10 +6802,10 @@
         <v>114598.48</v>
       </c>
       <c r="C457">
+        <v>3243.91</v>
+      </c>
+      <c r="D457">
         <v>4208.6000000000004</v>
-      </c>
-      <c r="D457">
-        <v>3243.91</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -6816,10 +6816,10 @@
         <v>114425.26</v>
       </c>
       <c r="C458">
+        <v>3261.72</v>
+      </c>
+      <c r="D458">
         <v>4226.58</v>
-      </c>
-      <c r="D458">
-        <v>3261.72</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -6830,10 +6830,10 @@
         <v>113832.11</v>
       </c>
       <c r="C459">
+        <v>3297.34</v>
+      </c>
+      <c r="D459">
         <v>4240.07</v>
-      </c>
-      <c r="D459">
-        <v>3297.34</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -6844,10 +6844,10 @@
         <v>114010.58</v>
       </c>
       <c r="C460">
+        <v>3305.72</v>
+      </c>
+      <c r="D460">
         <v>4194.6099999999997</v>
-      </c>
-      <c r="D460">
-        <v>3305.72</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -6858,10 +6858,10 @@
         <v>113307.2</v>
       </c>
       <c r="C461">
+        <v>3305.72</v>
+      </c>
+      <c r="D461">
         <v>4269.1899999999996</v>
-      </c>
-      <c r="D461">
-        <v>3305.72</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -6872,10 +6872,10 @@
         <v>113039.49</v>
       </c>
       <c r="C462">
+        <v>3292.63</v>
+      </c>
+      <c r="D462">
         <v>4238.16</v>
-      </c>
-      <c r="D462">
-        <v>3292.63</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -6886,10 +6886,10 @@
         <v>114010.58</v>
       </c>
       <c r="C463">
+        <v>3280.05</v>
+      </c>
+      <c r="D463">
         <v>4233.6499999999996</v>
-      </c>
-      <c r="D463">
-        <v>3280.05</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -6900,10 +6900,10 @@
         <v>114367.52</v>
       </c>
       <c r="C464">
+        <v>3257</v>
+      </c>
+      <c r="D464">
         <v>4204.62</v>
-      </c>
-      <c r="D464">
-        <v>3257</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -6914,10 +6914,10 @@
         <v>113380.68</v>
       </c>
       <c r="C465">
+        <v>3254.65</v>
+      </c>
+      <c r="D465">
         <v>4202.12</v>
-      </c>
-      <c r="D465">
-        <v>3254.65</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -6928,10 +6928,10 @@
         <v>111449.01</v>
       </c>
       <c r="C466">
+        <v>3268.53</v>
+      </c>
+      <c r="D466">
         <v>4202.62</v>
-      </c>
-      <c r="D466">
-        <v>3268.53</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -6942,10 +6942,10 @@
         <v>111858.44</v>
       </c>
       <c r="C467">
+        <v>3269.05</v>
+      </c>
+      <c r="D467">
         <v>4229.1499999999996</v>
-      </c>
-      <c r="D467">
-        <v>3269.05</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -6956,10 +6956,10 @@
         <v>112283.62</v>
       </c>
       <c r="C468">
+        <v>3240.24</v>
+      </c>
+      <c r="D468">
         <v>4204.12</v>
-      </c>
-      <c r="D468">
-        <v>3240.24</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -6970,10 +6970,10 @@
         <v>111910.93</v>
       </c>
       <c r="C469">
+        <v>3240.24</v>
+      </c>
+      <c r="D469">
         <v>4181.59</v>
-      </c>
-      <c r="D469">
-        <v>3240.24</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -6984,10 +6984,10 @@
         <v>112262.62</v>
       </c>
       <c r="C470">
+        <v>3236.31</v>
+      </c>
+      <c r="D470">
         <v>4178.59</v>
-      </c>
-      <c r="D470">
-        <v>3236.31</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -6998,10 +6998,10 @@
         <v>114246.79</v>
       </c>
       <c r="C471">
+        <v>3233.95</v>
+      </c>
+      <c r="D471">
         <v>4163.57</v>
-      </c>
-      <c r="D471">
-        <v>3233.95</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -7012,10 +7012,10 @@
         <v>113275.7</v>
       </c>
       <c r="C472">
+        <v>3237.36</v>
+      </c>
+      <c r="D472">
         <v>4174.09</v>
-      </c>
-      <c r="D472">
-        <v>3237.36</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -7026,10 +7026,10 @@
         <v>115412.09</v>
       </c>
       <c r="C473">
+        <v>3230.02</v>
+      </c>
+      <c r="D473">
         <v>4111.0200000000004</v>
-      </c>
-      <c r="D473">
-        <v>3230.02</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -7040,10 +7040,10 @@
         <v>114325.52</v>
       </c>
       <c r="C474">
+        <v>3220.07</v>
+      </c>
+      <c r="D474">
         <v>4090.99</v>
-      </c>
-      <c r="D474">
-        <v>3220.07</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -7054,10 +7054,10 @@
         <v>114603.73</v>
       </c>
       <c r="C475">
+        <v>3220.85</v>
+      </c>
+      <c r="D475">
         <v>4004.4</v>
-      </c>
-      <c r="D475">
-        <v>3220.85</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -7068,10 +7068,10 @@
         <v>114782.2</v>
       </c>
       <c r="C476">
+        <v>3225.31</v>
+      </c>
+      <c r="D476">
         <v>4023.92</v>
-      </c>
-      <c r="D476">
-        <v>3225.31</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -7082,10 +7082,10 @@
         <v>114399.01</v>
       </c>
       <c r="C477">
+        <v>3210.38</v>
+      </c>
+      <c r="D477">
         <v>4001.4</v>
-      </c>
-      <c r="D477">
-        <v>3210.38</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -7096,10 +7096,10 @@
         <v>112966</v>
       </c>
       <c r="C478">
+        <v>3182.09</v>
+      </c>
+      <c r="D478">
         <v>4028.43</v>
-      </c>
-      <c r="D478">
-        <v>3182.09</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -7110,10 +7110,10 @@
         <v>114430.51</v>
       </c>
       <c r="C479">
+        <v>3196.49</v>
+      </c>
+      <c r="D479">
         <v>4004.4</v>
-      </c>
-      <c r="D479">
-        <v>3196.49</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -7124,10 +7124,10 @@
         <v>113769.12</v>
       </c>
       <c r="C480">
+        <v>3182.61</v>
+      </c>
+      <c r="D480">
         <v>4011.92</v>
-      </c>
-      <c r="D480">
-        <v>3182.61</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -7138,10 +7138,10 @@
         <v>113947.59</v>
       </c>
       <c r="C481">
+        <v>3182.09</v>
+      </c>
+      <c r="D481">
         <v>4004.4</v>
-      </c>
-      <c r="D481">
-        <v>3182.09</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -7152,10 +7152,10 @@
         <v>113464.67</v>
       </c>
       <c r="C482">
+        <v>3165.85</v>
+      </c>
+      <c r="D482">
         <v>4017.94</v>
-      </c>
-      <c r="D482">
-        <v>3165.85</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -7166,10 +7166,10 @@
         <v>113191.72</v>
       </c>
       <c r="C483">
+        <v>3148.82</v>
+      </c>
+      <c r="D483">
         <v>4054.05</v>
-      </c>
-      <c r="D483">
-        <v>3148.82</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -7180,10 +7180,10 @@
         <v>113590.65</v>
       </c>
       <c r="C484">
+        <v>3149.34</v>
+      </c>
+      <c r="D484">
         <v>4049.04</v>
-      </c>
-      <c r="D484">
-        <v>3149.34</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -7194,10 +7194,10 @@
         <v>113065.74</v>
       </c>
       <c r="C485">
+        <v>3132.58</v>
+      </c>
+      <c r="D485">
         <v>4096.68</v>
-      </c>
-      <c r="D485">
-        <v>3132.58</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -7208,10 +7208,10 @@
         <v>112288.87</v>
       </c>
       <c r="C486">
+        <v>3150.13</v>
+      </c>
+      <c r="D486">
         <v>4146.34</v>
-      </c>
-      <c r="D486">
-        <v>3150.13</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -7222,10 +7222,10 @@
         <v>110546.17</v>
       </c>
       <c r="C487">
+        <v>3135.98</v>
+      </c>
+      <c r="D487">
         <v>4130.29</v>
-      </c>
-      <c r="D487">
-        <v>3135.98</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -7236,10 +7236,10 @@
         <v>111218.05</v>
       </c>
       <c r="C488">
+        <v>3141.22</v>
+      </c>
+      <c r="D488">
         <v>4180.95</v>
-      </c>
-      <c r="D488">
-        <v>3141.22</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -7250,10 +7250,10 @@
         <v>111370.28</v>
       </c>
       <c r="C489">
+        <v>3132.84</v>
+      </c>
+      <c r="D489">
         <v>4169.41</v>
-      </c>
-      <c r="D489">
-        <v>3132.84</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -7264,10 +7264,10 @@
         <v>110231.22</v>
       </c>
       <c r="C490">
+        <v>3139.65</v>
+      </c>
+      <c r="D490">
         <v>4198</v>
-      </c>
-      <c r="D490">
-        <v>3139.65</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -7278,10 +7278,10 @@
         <v>110639.03</v>
       </c>
       <c r="C491">
+        <v>3104.81</v>
+      </c>
+      <c r="D491">
         <v>4144.33</v>
-      </c>
-      <c r="D491">
-        <v>3104.81</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -7292,10 +7292,10 @@
         <v>109664.52</v>
       </c>
       <c r="C492">
+        <v>3110.84</v>
+      </c>
+      <c r="D492">
         <v>4123.2700000000004</v>
-      </c>
-      <c r="D492">
-        <v>3110.84</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -7306,10 +7306,10 @@
         <v>108361.64</v>
       </c>
       <c r="C493">
+        <v>3081.5</v>
+      </c>
+      <c r="D493">
         <v>4128.28</v>
-      </c>
-      <c r="D493">
-        <v>3081.5</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -7320,10 +7320,10 @@
         <v>107408.31</v>
       </c>
       <c r="C494">
+        <v>3056.35</v>
+      </c>
+      <c r="D494">
         <v>4128.28</v>
-      </c>
-      <c r="D494">
-        <v>3056.35</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -7334,10 +7334,10 @@
         <v>105734.69</v>
       </c>
       <c r="C495">
+        <v>3036.45</v>
+      </c>
+      <c r="D495">
         <v>4114.74</v>
-      </c>
-      <c r="D495">
-        <v>3036.45</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -7348,10 +7348,10 @@
         <v>106566.2</v>
       </c>
       <c r="C496">
+        <v>3075.21</v>
+      </c>
+      <c r="D496">
         <v>4127.78</v>
-      </c>
-      <c r="D496">
-        <v>3075.21</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -7362,10 +7362,10 @@
         <v>108509.93</v>
       </c>
       <c r="C497">
+        <v>3091.19</v>
+      </c>
+      <c r="D497">
         <v>4077.63</v>
-      </c>
-      <c r="D497">
-        <v>3091.19</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -7376,10 +7376,10 @@
         <v>107598.98</v>
       </c>
       <c r="C498">
+        <v>3054.52</v>
+      </c>
+      <c r="D498">
         <v>4105.21</v>
-      </c>
-      <c r="D498">
-        <v>3054.52</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -7390,10 +7390,10 @@
         <v>107069.35</v>
       </c>
       <c r="C499">
+        <v>3022.83</v>
+      </c>
+      <c r="D499">
         <v>4149.3500000000004</v>
-      </c>
-      <c r="D499">
-        <v>3022.83</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -7404,10 +7404,10 @@
         <v>110231.22</v>
       </c>
       <c r="C500">
+        <v>3083.07</v>
+      </c>
+      <c r="D500">
         <v>4178.4399999999996</v>
-      </c>
-      <c r="D500">
-        <v>3083.07</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -7418,10 +7418,10 @@
         <v>111343.44</v>
       </c>
       <c r="C501">
+        <v>3124.46</v>
+      </c>
+      <c r="D501">
         <v>4175.43</v>
-      </c>
-      <c r="D501">
-        <v>3124.46</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -7432,10 +7432,10 @@
         <v>111745.95</v>
       </c>
       <c r="C502">
+        <v>3106.91</v>
+      </c>
+      <c r="D502">
         <v>4179.4399999999996</v>
-      </c>
-      <c r="D502">
-        <v>3106.91</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -7446,10 +7446,10 @@
         <v>111576.47</v>
       </c>
       <c r="C503">
+        <v>3128.39</v>
+      </c>
+      <c r="D503">
         <v>4196.04</v>
-      </c>
-      <c r="D503">
-        <v>3128.39</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -7460,10 +7460,10 @@
         <v>110903.85</v>
       </c>
       <c r="C504">
+        <v>3129.17</v>
+      </c>
+      <c r="D504">
         <v>4172.8999999999996</v>
-      </c>
-      <c r="D504">
-        <v>3129.17</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -7474,10 +7474,10 @@
         <v>110374.22</v>
       </c>
       <c r="C505">
+        <v>3115.55</v>
+      </c>
+      <c r="D505">
         <v>4189</v>
-      </c>
-      <c r="D505">
-        <v>3115.55</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -7488,10 +7488,10 @@
         <v>111232.22</v>
       </c>
       <c r="C506">
+        <v>3142.8</v>
+      </c>
+      <c r="D506">
         <v>4189.5</v>
-      </c>
-      <c r="D506">
-        <v>3142.8</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -7502,10 +7502,10 @@
         <v>111168.66</v>
       </c>
       <c r="C507">
+        <v>3131.79</v>
+      </c>
+      <c r="D507">
         <v>4174.92</v>
-      </c>
-      <c r="D507">
-        <v>3131.79</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -7516,10 +7516,10 @@
         <v>110977.99</v>
       </c>
       <c r="C508">
+        <v>3150.65</v>
+      </c>
+      <c r="D508">
         <v>4194.53</v>
-      </c>
-      <c r="D508">
-        <v>3150.65</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -7530,10 +7530,10 @@
         <v>111126.29</v>
       </c>
       <c r="C509">
+        <v>3153.54</v>
+      </c>
+      <c r="D509">
         <v>4137.7</v>
-      </c>
-      <c r="D509">
-        <v>3153.54</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -7544,10 +7544,10 @@
         <v>111433.47</v>
       </c>
       <c r="C510">
+        <v>3150.92</v>
+      </c>
+      <c r="D510">
         <v>4103</v>
-      </c>
-      <c r="D510">
-        <v>3150.92</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -7558,10 +7558,10 @@
         <v>110326.55</v>
       </c>
       <c r="C511">
+        <v>3146.2</v>
+      </c>
+      <c r="D511">
         <v>4107.53</v>
-      </c>
-      <c r="D511">
-        <v>3146.2</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -7572,10 +7572,10 @@
         <v>110040.55</v>
       </c>
       <c r="C512">
+        <v>3153.54</v>
+      </c>
+      <c r="D512">
         <v>4112.0600000000004</v>
-      </c>
-      <c r="D512">
-        <v>3153.54</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -7586,10 +7586,10 @@
         <v>110797.92</v>
       </c>
       <c r="C513">
+        <v>3151.96</v>
+      </c>
+      <c r="D513">
         <v>4087.92</v>
-      </c>
-      <c r="D513">
-        <v>3151.96</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -7600,10 +7600,10 @@
         <v>110247.11</v>
       </c>
       <c r="C514">
+        <v>3149.61</v>
+      </c>
+      <c r="D514">
         <v>4095.46</v>
-      </c>
-      <c r="D514">
-        <v>3149.61</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -7614,10 +7614,10 @@
         <v>109579.78</v>
       </c>
       <c r="C515">
+        <v>3127.85</v>
+      </c>
+      <c r="D515">
         <v>4110.04</v>
-      </c>
-      <c r="D515">
-        <v>3127.85</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -7628,10 +7628,10 @@
         <v>109982.3</v>
       </c>
       <c r="C516">
+        <v>3124.18</v>
+      </c>
+      <c r="D516">
         <v>4124.63</v>
-      </c>
-      <c r="D516">
-        <v>3124.18</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -7642,10 +7642,10 @@
         <v>109685.71</v>
       </c>
       <c r="C517">
+        <v>3127.59</v>
+      </c>
+      <c r="D517">
         <v>4091.44</v>
-      </c>
-      <c r="D517">
-        <v>3127.59</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -7656,10 +7656,10 @@
         <v>108647.64</v>
       </c>
       <c r="C518">
+        <v>3115.27</v>
+      </c>
+      <c r="D518">
         <v>4139.21</v>
-      </c>
-      <c r="D518">
-        <v>3115.27</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -7670,10 +7670,10 @@
         <v>107614.86</v>
       </c>
       <c r="C519">
+        <v>3078.84</v>
+      </c>
+      <c r="D519">
         <v>4124.63</v>
-      </c>
-      <c r="D519">
-        <v>3078.84</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -7684,10 +7684,10 @@
         <v>106402.02</v>
       </c>
       <c r="C520">
+        <v>3046.34</v>
+      </c>
+      <c r="D520">
         <v>4199.05</v>
-      </c>
-      <c r="D520">
-        <v>3046.34</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -7698,10 +7698,10 @@
         <v>107381.83</v>
       </c>
       <c r="C521">
+        <v>3043.2</v>
+      </c>
+      <c r="D521">
         <v>4217.66</v>
-      </c>
-      <c r="D521">
-        <v>3043.2</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -7712,10 +7712,10 @@
         <v>108282.19</v>
       </c>
       <c r="C522">
+        <v>3063.12</v>
+      </c>
+      <c r="D522">
         <v>4171.3999999999996</v>
-      </c>
-      <c r="D522">
-        <v>3063.12</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -7726,10 +7726,10 @@
         <v>107561.9</v>
       </c>
       <c r="C523">
+        <v>3066.26</v>
+      </c>
+      <c r="D523">
         <v>4202.57</v>
-      </c>
-      <c r="D523">
-        <v>3066.26</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -7740,10 +7740,10 @@
         <v>104278.22</v>
       </c>
       <c r="C524">
+        <v>3019.09</v>
+      </c>
+      <c r="D524">
         <v>4200.5600000000004</v>
-      </c>
-      <c r="D524">
-        <v>3019.09</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -7754,10 +7754,10 @@
         <v>103616.18</v>
       </c>
       <c r="C525">
+        <v>3003.36</v>
+      </c>
+      <c r="D525">
         <v>4161.26</v>
-      </c>
-      <c r="D525">
-        <v>3003.36</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -7768,10 +7768,10 @@
         <v>101577.12</v>
       </c>
       <c r="C526">
+        <v>3014.11</v>
+      </c>
+      <c r="D526">
         <v>4187.96</v>
-      </c>
-      <c r="D526">
-        <v>3014.11</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -7782,10 +7782,10 @@
         <v>104177.59</v>
       </c>
       <c r="C527">
+        <v>2989.47</v>
+      </c>
+      <c r="D527">
         <v>4153.71</v>
-      </c>
-      <c r="D527">
-        <v>2989.47</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -7796,10 +7796,10 @@
         <v>106793.94</v>
       </c>
       <c r="C528">
+        <v>3061.54</v>
+      </c>
+      <c r="D528">
         <v>4103.33</v>
-      </c>
-      <c r="D528">
-        <v>3061.54</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -7810,10 +7810,10 @@
         <v>108192.16</v>
       </c>
       <c r="C529">
+        <v>3074.12</v>
+      </c>
+      <c r="D529">
         <v>4059.5</v>
-      </c>
-      <c r="D529">
-        <v>3074.12</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -7824,10 +7824,10 @@
         <v>105649.95</v>
       </c>
       <c r="C530">
+        <v>3034.81</v>
+      </c>
+      <c r="D530">
         <v>4088.21</v>
-      </c>
-      <c r="D530">
-        <v>3034.81</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -7838,10 +7838,10 @@
         <v>106121.32</v>
       </c>
       <c r="C531">
+        <v>3061.02</v>
+      </c>
+      <c r="D531">
         <v>4109.88</v>
-      </c>
-      <c r="D531">
-        <v>3061.02</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -7852,10 +7852,10 @@
         <v>106878.68</v>
       </c>
       <c r="C532">
+        <v>3030.09</v>
+      </c>
+      <c r="D532">
         <v>4041.36</v>
-      </c>
-      <c r="D532">
-        <v>3030.09</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -7866,10 +7866,10 @@
         <v>105819.43</v>
       </c>
       <c r="C533">
+        <v>2984.49</v>
+      </c>
+      <c r="D533">
         <v>4027.76</v>
-      </c>
-      <c r="D533">
-        <v>2984.49</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -7880,10 +7880,10 @@
         <v>106894.57</v>
       </c>
       <c r="C534">
+        <v>2974.8</v>
+      </c>
+      <c r="D534">
         <v>4088.21</v>
-      </c>
-      <c r="D534">
-        <v>2974.8</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -7894,10 +7894,10 @@
         <v>110644.33</v>
       </c>
       <c r="C535">
+        <v>3073.6</v>
+      </c>
+      <c r="D535">
         <v>3999.55</v>
-      </c>
-      <c r="D535">
-        <v>3073.6</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -7908,10 +7908,10 @@
         <v>108646.31</v>
       </c>
       <c r="C536">
+        <v>3018.04</v>
+      </c>
+      <c r="D536">
         <v>4022.22</v>
-      </c>
-      <c r="D536">
-        <v>3018.04</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -7922,10 +7922,10 @@
         <v>111066.37</v>
       </c>
       <c r="C537">
+        <v>3063.12</v>
+      </c>
+      <c r="D537">
         <v>3978.89</v>
-      </c>
-      <c r="D537">
-        <v>3063.12</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -7936,10 +7936,10 @@
         <v>111627.31</v>
       </c>
       <c r="C538">
+        <v>3081.2</v>
+      </c>
+      <c r="D538">
         <v>3957.73</v>
-      </c>
-      <c r="D538">
-        <v>3081.2</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -7950,10 +7950,10 @@
         <v>109912.43</v>
       </c>
       <c r="C539">
+        <v>3021.45</v>
+      </c>
+      <c r="D539">
         <v>4006.1</v>
-      </c>
-      <c r="D539">
-        <v>3021.45</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -7964,10 +7964,10 @@
         <v>109372.86</v>
       </c>
       <c r="C540">
+        <v>3016.99</v>
+      </c>
+      <c r="D540">
         <v>3999.04</v>
-      </c>
-      <c r="D540">
-        <v>3016.99</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -7978,10 +7978,10 @@
         <v>106813.9</v>
       </c>
       <c r="C541">
+        <v>2963.27</v>
+      </c>
+      <c r="D541">
         <v>4013.65</v>
-      </c>
-      <c r="D541">
-        <v>2963.27</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -7992,10 +7992,10 @@
         <v>109960.52</v>
       </c>
       <c r="C542">
+        <v>3077.79</v>
+      </c>
+      <c r="D542">
         <v>3923.98</v>
-      </c>
-      <c r="D542">
-        <v>3077.79</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -8006,10 +8006,10 @@
         <v>109020.27</v>
       </c>
       <c r="C543">
+        <v>3092.99</v>
+      </c>
+      <c r="D543">
         <v>3879.14</v>
-      </c>
-      <c r="D543">
-        <v>3092.99</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -8020,10 +8020,10 @@
         <v>108982.87</v>
       </c>
       <c r="C544">
+        <v>3118.15</v>
+      </c>
+      <c r="D544">
         <v>3851.94</v>
-      </c>
-      <c r="D544">
-        <v>3118.15</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -8034,10 +8034,10 @@
         <v>110265.03</v>
       </c>
       <c r="C545">
+        <v>3161.39</v>
+      </c>
+      <c r="D545">
         <v>3828.77</v>
-      </c>
-      <c r="D545">
-        <v>3161.39</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -8048,10 +8048,10 @@
         <v>111077.06</v>
       </c>
       <c r="C546">
+        <v>3168.21</v>
+      </c>
+      <c r="D546">
         <v>3820.18</v>
-      </c>
-      <c r="D546">
-        <v>3168.21</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -8062,10 +8062,10 @@
         <v>110147.5</v>
       </c>
       <c r="C547">
+        <v>3169.52</v>
+      </c>
+      <c r="D547">
         <v>3814.12</v>
-      </c>
-      <c r="D547">
-        <v>3169.52</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -8076,10 +8076,10 @@
         <v>110045.99</v>
       </c>
       <c r="C548">
+        <v>3150.91</v>
+      </c>
+      <c r="D548">
         <v>3817.15</v>
-      </c>
-      <c r="D548">
-        <v>3150.91</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -8090,10 +8090,10 @@
         <v>111386.91</v>
       </c>
       <c r="C549">
+        <v>3164.54</v>
+      </c>
+      <c r="D549">
         <v>3811.6</v>
-      </c>
-      <c r="D549">
-        <v>3164.54</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -8104,10 +8104,10 @@
         <v>111504.44</v>
       </c>
       <c r="C550">
+        <v>3146.98</v>
+      </c>
+      <c r="D550">
         <v>3813.11</v>
-      </c>
-      <c r="D550">
-        <v>3146.98</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -8118,10 +8118,10 @@
         <v>111616.63</v>
       </c>
       <c r="C551">
+        <v>3139.64</v>
+      </c>
+      <c r="D551">
         <v>3780.8</v>
-      </c>
-      <c r="D551">
-        <v>3139.64</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -8132,10 +8132,10 @@
         <v>110777.89</v>
       </c>
       <c r="C552">
+        <v>3116.32</v>
+      </c>
+      <c r="D552">
         <v>3786.86</v>
-      </c>
-      <c r="D552">
-        <v>3116.32</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -8146,10 +8146,10 @@
         <v>112588.93</v>
       </c>
       <c r="C553">
+        <v>3151.96</v>
+      </c>
+      <c r="D553">
         <v>3758.08</v>
-      </c>
-      <c r="D553">
-        <v>3151.96</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -8160,10 +8160,10 @@
         <v>111472.39</v>
       </c>
       <c r="C554">
+        <v>3127.06</v>
+      </c>
+      <c r="D554">
         <v>3805.03</v>
-      </c>
-      <c r="D554">
-        <v>3127.06</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -8174,10 +8174,10 @@
         <v>111509.78</v>
       </c>
       <c r="C555">
+        <v>3151.7</v>
+      </c>
+      <c r="D555">
         <v>3810.59</v>
-      </c>
-      <c r="D555">
-        <v>3151.7</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -8188,10 +8188,10 @@
         <v>111857.03</v>
       </c>
       <c r="C556">
+        <v>3161.65</v>
+      </c>
+      <c r="D556">
         <v>3798.47</v>
-      </c>
-      <c r="D556">
-        <v>3161.65</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -8202,10 +8202,10 @@
         <v>111648.68</v>
       </c>
       <c r="C557">
+        <v>3162.97</v>
+      </c>
+      <c r="D557">
         <v>3778.78</v>
-      </c>
-      <c r="D557">
-        <v>3162.97</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -8216,10 +8216,10 @@
         <v>112898.78</v>
       </c>
       <c r="C558">
+        <v>3148.81</v>
+      </c>
+      <c r="D558">
         <v>3797.97</v>
-      </c>
-      <c r="D558">
-        <v>3148.81</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -8230,10 +8230,10 @@
         <v>113475.75</v>
       </c>
       <c r="C559">
+        <v>3144.36</v>
+      </c>
+      <c r="D559">
         <v>3795.95</v>
-      </c>
-      <c r="D559">
-        <v>3144.36</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -8244,10 +8244,10 @@
         <v>112498.11</v>
       </c>
       <c r="C560">
+        <v>3121.3</v>
+      </c>
+      <c r="D560">
         <v>3847.45</v>
-      </c>
-      <c r="D560">
-        <v>3121.3</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -8258,10 +8258,10 @@
         <v>112081.41</v>
       </c>
       <c r="C561">
+        <v>3133.88</v>
+      </c>
+      <c r="D561">
         <v>3867.14</v>
-      </c>
-      <c r="D561">
-        <v>3133.88</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -8272,10 +8272,10 @@
         <v>111226.64</v>
       </c>
       <c r="C562">
+        <v>3148.03</v>
+      </c>
+      <c r="D562">
         <v>3846.94</v>
-      </c>
-      <c r="D562">
-        <v>3148.03</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -8286,10 +8286,10 @@
         <v>109698.74</v>
       </c>
       <c r="C563">
+        <v>3145.67</v>
+      </c>
+      <c r="D563">
         <v>3873.2</v>
-      </c>
-      <c r="D563">
-        <v>3145.67</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -8300,10 +8300,10 @@
         <v>108128.11</v>
       </c>
       <c r="C564">
+        <v>3123.39</v>
+      </c>
+      <c r="D564">
         <v>3891.88</v>
-      </c>
-      <c r="D564">
-        <v>3123.39</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -8314,10 +8314,10 @@
         <v>109153.83</v>
       </c>
       <c r="C565">
+        <v>3109.24</v>
+      </c>
+      <c r="D565">
         <v>3890.36</v>
-      </c>
-      <c r="D565">
-        <v>3109.24</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -8328,10 +8328,10 @@
         <v>108331.11</v>
       </c>
       <c r="C566">
+        <v>3096.66</v>
+      </c>
+      <c r="D566">
         <v>3899.45</v>
-      </c>
-      <c r="D566">
-        <v>3096.66</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -8342,10 +8342,10 @@
         <v>108389.88</v>
       </c>
       <c r="C567">
+        <v>3074.38</v>
+      </c>
+      <c r="D567">
         <v>3871.18</v>
-      </c>
-      <c r="D567">
-        <v>3074.38</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -8356,10 +8356,10 @@
         <v>108309.75</v>
       </c>
       <c r="C568">
+        <v>3057.35</v>
+      </c>
+      <c r="D568">
         <v>3894.99</v>
-      </c>
-      <c r="D568">
-        <v>3057.35</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -8370,10 +8370,10 @@
         <v>107390.87</v>
       </c>
       <c r="C569">
+        <v>3063.38</v>
+      </c>
+      <c r="D569">
         <v>3898.54</v>
-      </c>
-      <c r="D569">
-        <v>3063.38</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -8384,10 +8384,10 @@
         <v>110040.65</v>
       </c>
       <c r="C570">
+        <v>3094.56</v>
+      </c>
+      <c r="D570">
         <v>3877.26</v>
-      </c>
-      <c r="D570">
-        <v>3094.56</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -8398,10 +8398,10 @@
         <v>109949.83</v>
       </c>
       <c r="C571">
+        <v>3097.71</v>
+      </c>
+      <c r="D571">
         <v>3874.72</v>
-      </c>
-      <c r="D571">
-        <v>3097.71</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -8412,10 +8412,10 @@
         <v>108331.11</v>
       </c>
       <c r="C572">
+        <v>3074.91</v>
+      </c>
+      <c r="D572">
         <v>3892.97</v>
-      </c>
-      <c r="D572">
-        <v>3074.91</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -8426,10 +8426,10 @@
         <v>107396.21</v>
       </c>
       <c r="C573">
+        <v>3066.51</v>
+      </c>
+      <c r="D573">
         <v>3914.75</v>
-      </c>
-      <c r="D573">
-        <v>3066.51</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -8440,10 +8440,10 @@
         <v>105350.11</v>
       </c>
       <c r="C574">
+        <v>3035.82</v>
+      </c>
+      <c r="D574">
         <v>3943.64</v>
-      </c>
-      <c r="D574">
-        <v>3035.82</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -8454,10 +8454,10 @@
         <v>105387.51</v>
       </c>
       <c r="C575">
+        <v>3033.99</v>
+      </c>
+      <c r="D575">
         <v>3951.24</v>
-      </c>
-      <c r="D575">
-        <v>3033.99</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -8468,10 +8468,10 @@
         <v>106861.98</v>
       </c>
       <c r="C576">
+        <v>3041.86</v>
+      </c>
+      <c r="D576">
         <v>3904.62</v>
-      </c>
-      <c r="D576">
-        <v>3041.86</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -8482,10 +8482,10 @@
         <v>106301.04</v>
       </c>
       <c r="C577">
+        <v>3024.54</v>
+      </c>
+      <c r="D577">
         <v>3922.86</v>
-      </c>
-      <c r="D577">
-        <v>3024.54</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -8496,10 +8496,10 @@
         <v>106899.38</v>
       </c>
       <c r="C578">
+        <v>3028.74</v>
+      </c>
+      <c r="D578">
         <v>3914.25</v>
-      </c>
-      <c r="D578">
-        <v>3028.74</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -8510,10 +8510,10 @@
         <v>104860.94</v>
       </c>
       <c r="C579">
+        <v>3033.2</v>
+      </c>
+      <c r="D579">
         <v>3946.68</v>
-      </c>
-      <c r="D579">
-        <v>3033.2</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -8524,10 +8524,10 @@
         <v>105718.38</v>
       </c>
       <c r="C580">
+        <v>3018.77</v>
+      </c>
+      <c r="D580">
         <v>3937.05</v>
-      </c>
-      <c r="D580">
-        <v>3018.77</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -8538,10 +8538,10 @@
         <v>104505.02</v>
       </c>
       <c r="C581">
+        <v>2979.95</v>
+      </c>
+      <c r="D581">
         <v>3939.08</v>
-      </c>
-      <c r="D581">
-        <v>2979.95</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -8552,10 +8552,10 @@
         <v>103965.75</v>
       </c>
       <c r="C582">
+        <v>2968.41</v>
+      </c>
+      <c r="D582">
         <v>3941.1</v>
-      </c>
-      <c r="D582">
-        <v>2968.41</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -8566,10 +8566,10 @@
         <v>105389.42</v>
       </c>
       <c r="C583">
+        <v>2945.85</v>
+      </c>
+      <c r="D583">
         <v>3914.25</v>
-      </c>
-      <c r="D583">
-        <v>2945.85</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -8580,10 +8580,10 @@
         <v>104882.51</v>
       </c>
       <c r="C584">
+        <v>2888.66</v>
+      </c>
+      <c r="D584">
         <v>3946.68</v>
-      </c>
-      <c r="D584">
-        <v>2888.66</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -8594,10 +8594,10 @@
         <v>104720.73</v>
       </c>
       <c r="C585">
+        <v>2887.61</v>
+      </c>
+      <c r="D585">
         <v>3987.21</v>
-      </c>
-      <c r="D585">
-        <v>2887.61</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -8608,10 +8608,10 @@
         <v>105475.71</v>
       </c>
       <c r="C586">
+        <v>2934.83</v>
+      </c>
+      <c r="D586">
         <v>4044.47</v>
-      </c>
-      <c r="D586">
-        <v>2934.83</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -8622,10 +8622,10 @@
         <v>104100.57</v>
       </c>
       <c r="C587">
+        <v>2922.24</v>
+      </c>
+      <c r="D587">
         <v>4036.35</v>
-      </c>
-      <c r="D587">
-        <v>2922.24</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -8636,10 +8636,10 @@
         <v>104213.82</v>
       </c>
       <c r="C588">
+        <v>2942.17</v>
+      </c>
+      <c r="D588">
         <v>4086.61</v>
-      </c>
-      <c r="D588">
-        <v>2942.17</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -8650,10 +8650,10 @@
         <v>102730.83</v>
       </c>
       <c r="C589">
+        <v>2971.29</v>
+      </c>
+      <c r="D589">
         <v>4107.43</v>
-      </c>
-      <c r="D589">
-        <v>2971.29</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -8664,10 +8664,10 @@
         <v>100999.77</v>
       </c>
       <c r="C590">
+        <v>2976.54</v>
+      </c>
+      <c r="D590">
         <v>4088.64</v>
-      </c>
-      <c r="D590">
-        <v>2976.54</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -8678,10 +8678,10 @@
         <v>101814.07</v>
       </c>
       <c r="C591">
+        <v>2962.11</v>
+      </c>
+      <c r="D591">
         <v>4105.8999999999996</v>
-      </c>
-      <c r="D591">
-        <v>2962.11</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -8692,10 +8692,10 @@
         <v>102407.26</v>
       </c>
       <c r="C592">
+        <v>2996.74</v>
+      </c>
+      <c r="D592">
         <v>4106.41</v>
-      </c>
-      <c r="D592">
-        <v>2996.74</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -8706,10 +8706,10 @@
         <v>102412.66</v>
       </c>
       <c r="C593">
+        <v>3008.28</v>
+      </c>
+      <c r="D593">
         <v>4105.8999999999996</v>
-      </c>
-      <c r="D593">
-        <v>3008.28</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -8720,10 +8720,10 @@
         <v>99969.77</v>
       </c>
       <c r="C594">
+        <v>2985.2</v>
+      </c>
+      <c r="D594">
         <v>4165.8100000000004</v>
-      </c>
-      <c r="D594">
-        <v>2985.2</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -8734,10 +8734,10 @@
         <v>97807.3</v>
       </c>
       <c r="C595">
+        <v>2999.89</v>
+      </c>
+      <c r="D595">
         <v>4168.8599999999997</v>
-      </c>
-      <c r="D595">
-        <v>2999.89</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -8748,10 +8748,10 @@
         <v>97494.52</v>
       </c>
       <c r="C596">
+        <v>3026.12</v>
+      </c>
+      <c r="D596">
         <v>4116.5600000000004</v>
-      </c>
-      <c r="D596">
-        <v>3026.12</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -8762,10 +8762,10 @@
         <v>98734.84</v>
       </c>
       <c r="C597">
+        <v>2996.74</v>
+      </c>
+      <c r="D597">
         <v>4071.89</v>
-      </c>
-      <c r="D597">
-        <v>2996.74</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -8776,10 +8776,10 @@
         <v>99538.35</v>
       </c>
       <c r="C598">
+        <v>2978.11</v>
+      </c>
+      <c r="D598">
         <v>4043.45</v>
-      </c>
-      <c r="D598">
-        <v>2978.11</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -8790,10 +8790,10 @@
         <v>98157.82</v>
       </c>
       <c r="C599">
+        <v>2943.22</v>
+      </c>
+      <c r="D599">
         <v>4065.29</v>
-      </c>
-      <c r="D599">
-        <v>2943.22</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -8804,10 +8804,10 @@
         <v>101706.21</v>
       </c>
       <c r="C600">
+        <v>3031.89</v>
+      </c>
+      <c r="D600">
         <v>4021.11</v>
-      </c>
-      <c r="D600">
-        <v>3031.89</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -8818,10 +8818,10 @@
         <v>102682.29</v>
       </c>
       <c r="C601">
+        <v>3021.13</v>
+      </c>
+      <c r="D601">
         <v>4016.04</v>
-      </c>
-      <c r="D601">
-        <v>3021.13</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -8832,10 +8832,10 @@
         <v>103485.8</v>
       </c>
       <c r="C602">
+        <v>3026.38</v>
+      </c>
+      <c r="D602">
         <v>3997.76</v>
-      </c>
-      <c r="D602">
-        <v>3026.38</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -8846,10 +8846,10 @@
         <v>102811.72</v>
       </c>
       <c r="C603">
+        <v>3030.05</v>
+      </c>
+      <c r="D603">
         <v>4040.41</v>
-      </c>
-      <c r="D603">
-        <v>3030.05</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
@@ -8860,10 +8860,10 @@
         <v>102720.04</v>
       </c>
       <c r="C604">
+        <v>3077.01</v>
+      </c>
+      <c r="D604">
         <v>4037.36</v>
-      </c>
-      <c r="D604">
-        <v>3077.01</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
@@ -8874,10 +8874,10 @@
         <v>104116.75</v>
       </c>
       <c r="C605">
+        <v>3095.37</v>
+      </c>
+      <c r="D605">
         <v>4009.44</v>
-      </c>
-      <c r="D605">
-        <v>3095.37</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
@@ -8888,10 +8888,10 @@
         <v>103631.41</v>
       </c>
       <c r="C606">
+        <v>3063.63</v>
+      </c>
+      <c r="D606">
         <v>4038.88</v>
-      </c>
-      <c r="D606">
-        <v>3063.63</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
@@ -8902,10 +8902,10 @@
         <v>104623.66</v>
       </c>
       <c r="C607">
+        <v>3100.62</v>
+      </c>
+      <c r="D607">
         <v>3991.16</v>
-      </c>
-      <c r="D607">
-        <v>3100.62</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
@@ -8916,10 +8916,10 @@
         <v>104413.35</v>
       </c>
       <c r="C608">
+        <v>3087.76</v>
+      </c>
+      <c r="D608">
         <v>4015.02</v>
-      </c>
-      <c r="D608">
-        <v>3087.76</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
@@ -8930,10 +8930,10 @@
         <v>104467.27</v>
       </c>
       <c r="C609">
+        <v>3086.98</v>
+      </c>
+      <c r="D609">
         <v>3997.73</v>
-      </c>
-      <c r="D609">
-        <v>3086.98</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
@@ -8944,10 +8944,10 @@
         <v>104715.34</v>
       </c>
       <c r="C610">
+        <v>3067.56</v>
+      </c>
+      <c r="D610">
         <v>4021.13</v>
-      </c>
-      <c r="D610">
-        <v>3067.56</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
@@ -8958,10 +8958,10 @@
         <v>103340.2</v>
       </c>
       <c r="C611">
+        <v>3072.81</v>
+      </c>
+      <c r="D611">
         <v>4063.35</v>
-      </c>
-      <c r="D611">
-        <v>3072.81</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
@@ -8972,10 +8972,10 @@
         <v>104316.28</v>
       </c>
       <c r="C612">
+        <v>3084.61</v>
+      </c>
+      <c r="D612">
         <v>3991.11</v>
-      </c>
-      <c r="D612">
-        <v>3084.61</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
@@ -8986,10 +8986,10 @@
         <v>102838.68</v>
       </c>
       <c r="C613">
+        <v>3056.28</v>
+      </c>
+      <c r="D613">
         <v>4007.39</v>
-      </c>
-      <c r="D613">
-        <v>3056.28</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
@@ -9000,10 +9000,10 @@
         <v>102461.19</v>
       </c>
       <c r="C614">
+        <v>3054.45</v>
+      </c>
+      <c r="D614">
         <v>3993.15</v>
-      </c>
-      <c r="D614">
-        <v>3054.45</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
@@ -9014,10 +9014,10 @@
         <v>101754.75</v>
       </c>
       <c r="C615">
+        <v>3044.74</v>
+      </c>
+      <c r="D615">
         <v>4010.44</v>
-      </c>
-      <c r="D615">
-        <v>3044.74</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
@@ -9028,10 +9028,10 @@
         <v>102800.93</v>
       </c>
       <c r="C616">
+        <v>3054.71</v>
+      </c>
+      <c r="D616">
         <v>3974.84</v>
-      </c>
-      <c r="D616">
-        <v>3054.71</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
@@ -9042,10 +9042,10 @@
         <v>101206.82</v>
       </c>
       <c r="C617">
+        <v>3054.97</v>
+      </c>
+      <c r="D617">
         <v>3943.3</v>
-      </c>
-      <c r="D617">
-        <v>3054.97</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
@@ -9056,10 +9056,10 @@
         <v>101250.35</v>
       </c>
       <c r="C618">
+        <v>3054.45</v>
+      </c>
+      <c r="D618">
         <v>3953.47</v>
-      </c>
-      <c r="D618">
-        <v>3054.45</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
@@ -9070,10 +9070,10 @@
         <v>103508.21</v>
       </c>
       <c r="C619">
+        <v>3033.99</v>
+      </c>
+      <c r="D619">
         <v>3930.07</v>
-      </c>
-      <c r="D619">
-        <v>3033.99</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
@@ -9084,10 +9084,10 @@
         <v>104351.51</v>
       </c>
       <c r="C620">
+        <v>3039.76</v>
+      </c>
+      <c r="D620">
         <v>3897.52</v>
-      </c>
-      <c r="D620">
-        <v>3039.76</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
@@ -9098,10 +9098,10 @@
         <v>104884.7</v>
       </c>
       <c r="C621">
+        <v>3023.76</v>
+      </c>
+      <c r="D621">
         <v>3922.95</v>
-      </c>
-      <c r="D621">
-        <v>3023.76</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
@@ -9112,10 +9112,10 @@
         <v>106092.52</v>
       </c>
       <c r="C622">
+        <v>3040.81</v>
+      </c>
+      <c r="D622">
         <v>3922.44</v>
-      </c>
-      <c r="D622">
-        <v>3040.81</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
@@ -9126,10 +9126,10 @@
         <v>105983.71</v>
       </c>
       <c r="C623">
+        <v>3038.45</v>
+      </c>
+      <c r="D623">
         <v>3946.35</v>
-      </c>
-      <c r="D623">
-        <v>3038.45</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
@@ -9140,10 +9140,10 @@
         <v>105134.97</v>
       </c>
       <c r="C624">
+        <v>3025.59</v>
+      </c>
+      <c r="D624">
         <v>3927.53</v>
-      </c>
-      <c r="D624">
-        <v>3025.59</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
@@ -9154,10 +9154,10 @@
         <v>103372.2</v>
       </c>
       <c r="C625">
+        <v>3017.2</v>
+      </c>
+      <c r="D625">
         <v>3943.81</v>
-      </c>
-      <c r="D625">
-        <v>3017.2</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
@@ -9168,10 +9168,10 @@
         <v>104117.57</v>
       </c>
       <c r="C626">
+        <v>3010.64</v>
+      </c>
+      <c r="D626">
         <v>3927.53</v>
-      </c>
-      <c r="D626">
-        <v>3010.64</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
@@ -9182,10 +9182,10 @@
         <v>104618.11</v>
       </c>
       <c r="C627">
+        <v>3013.26</v>
+      </c>
+      <c r="D627">
         <v>3926.51</v>
-      </c>
-      <c r="D627">
-        <v>3013.26</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
@@ -9196,10 +9196,10 @@
         <v>103742.16</v>
       </c>
       <c r="C628">
+        <v>2978.64</v>
+      </c>
+      <c r="D628">
         <v>3998.24</v>
-      </c>
-      <c r="D628">
-        <v>2978.64</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
@@ -9210,10 +9210,10 @@
         <v>102991.35</v>
       </c>
       <c r="C629">
+        <v>2965.26</v>
+      </c>
+      <c r="D629">
         <v>3975.85</v>
-      </c>
-      <c r="D629">
-        <v>2965.26</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
@@ -9224,10 +9224,10 @@
         <v>98562.67</v>
       </c>
       <c r="C630">
+        <v>2947.42</v>
+      </c>
+      <c r="D630">
         <v>4070.13</v>
-      </c>
-      <c r="D630">
-        <v>2947.42</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
@@ -9238,10 +9238,10 @@
         <v>103497.33</v>
       </c>
       <c r="C631">
+        <v>2962.64</v>
+      </c>
+      <c r="D631">
         <v>3951.9</v>
-      </c>
-      <c r="D631">
-        <v>2962.64</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
@@ -9252,10 +9252,10 @@
         <v>102354.8</v>
       </c>
       <c r="C632">
+        <v>2948.21</v>
+      </c>
+      <c r="D632">
         <v>3924.89</v>
-      </c>
-      <c r="D632">
-        <v>2948.21</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
@@ -9266,10 +9266,10 @@
         <v>101788.97</v>
       </c>
       <c r="C633">
+        <v>2946.37</v>
+      </c>
+      <c r="D633">
         <v>3982.99</v>
-      </c>
-      <c r="D633">
-        <v>2946.37</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
@@ -9280,10 +9280,10 @@
         <v>105738.88</v>
       </c>
       <c r="C634">
+        <v>3004.08</v>
+      </c>
+      <c r="D634">
         <v>3867.82</v>
-      </c>
-      <c r="D634">
-        <v>3004.08</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
@@ -9294,10 +9294,10 @@
         <v>106418.96</v>
       </c>
       <c r="C635">
+        <v>2964.47</v>
+      </c>
+      <c r="D635">
         <v>3849.47</v>
-      </c>
-      <c r="D635">
-        <v>2964.47</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
@@ -9308,10 +9308,10 @@
         <v>108698.59</v>
       </c>
       <c r="C636">
+        <v>2975.75</v>
+      </c>
+      <c r="D636">
         <v>3864.25</v>
-      </c>
-      <c r="D636">
-        <v>2975.75</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
@@ -9322,10 +9322,10 @@
         <v>109411.31</v>
       </c>
       <c r="C637">
+        <v>2982.57</v>
+      </c>
+      <c r="D637">
         <v>3866.29</v>
-      </c>
-      <c r="D637">
-        <v>2982.57</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
@@ -9336,10 +9336,10 @@
         <v>107991.3</v>
       </c>
       <c r="C638">
+        <v>2968.41</v>
+      </c>
+      <c r="D638">
         <v>3889.22</v>
-      </c>
-      <c r="D638">
-        <v>2968.41</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
@@ -9350,10 +9350,10 @@
         <v>107762.8</v>
       </c>
       <c r="C639">
+        <v>2948.73</v>
+      </c>
+      <c r="D639">
         <v>3920.82</v>
-      </c>
-      <c r="D639">
-        <v>2948.73</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
@@ -9364,10 +9364,10 @@
         <v>107887.93</v>
       </c>
       <c r="C640">
+        <v>2962.4</v>
+      </c>
+      <c r="D640">
         <v>3891.77</v>
-      </c>
-      <c r="D640">
-        <v>2962.4</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
@@ -9378,10 +9378,10 @@
         <v>107120.8</v>
       </c>
       <c r="C641">
+        <v>2939.01</v>
+      </c>
+      <c r="D641">
         <v>3889.73</v>
-      </c>
-      <c r="D641">
-        <v>2939.01</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
@@ -9392,10 +9392,10 @@
         <v>107289.46</v>
       </c>
       <c r="C642">
+        <v>2928.76</v>
+      </c>
+      <c r="D642">
         <v>3918.78</v>
-      </c>
-      <c r="D642">
-        <v>2928.76</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
@@ -9406,10 +9406,10 @@
         <v>104389.6</v>
       </c>
       <c r="C643">
+        <v>2874.09</v>
+      </c>
+      <c r="D643">
         <v>3947.83</v>
-      </c>
-      <c r="D643">
-        <v>2874.09</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
@@ -9420,10 +9420,10 @@
         <v>103546.3</v>
       </c>
       <c r="C644">
+        <v>2885.66</v>
+      </c>
+      <c r="D644">
         <v>3950.88</v>
-      </c>
-      <c r="D644">
-        <v>2885.66</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
@@ -9434,10 +9434,10 @@
         <v>103013.12</v>
       </c>
       <c r="C645">
+        <v>2917.2</v>
+      </c>
+      <c r="D645">
         <v>3920.31</v>
-      </c>
-      <c r="D645">
-        <v>2917.2</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
@@ -9448,10 +9448,10 @@
         <v>103557.18</v>
       </c>
       <c r="C646">
+        <v>2951.36</v>
+      </c>
+      <c r="D646">
         <v>3853.55</v>
-      </c>
-      <c r="D646">
-        <v>2951.36</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
@@ -9462,10 +9462,10 @@
         <v>104405.92</v>
       </c>
       <c r="C647">
+        <v>2927.18</v>
+      </c>
+      <c r="D647">
         <v>3830.62</v>
-      </c>
-      <c r="D647">
-        <v>2927.18</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
@@ -9476,10 +9476,10 @@
         <v>106582.18</v>
       </c>
       <c r="C648">
+        <v>2935.07</v>
+      </c>
+      <c r="D648">
         <v>3807.69</v>
-      </c>
-      <c r="D648">
-        <v>2935.07</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
@@ -9490,10 +9490,10 @@
         <v>106908.62</v>
       </c>
       <c r="C649">
+        <v>2939.8</v>
+      </c>
+      <c r="D649">
         <v>3824.03</v>
-      </c>
-      <c r="D649">
-        <v>2939.8</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
@@ -9504,10 +9504,10 @@
         <v>106690.99</v>
       </c>
       <c r="C650">
+        <v>2941.9</v>
+      </c>
+      <c r="D650">
         <v>3832.2</v>
-      </c>
-      <c r="D650">
-        <v>2941.9</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
@@ -9518,10 +9518,10 @@
         <v>107322.1</v>
       </c>
       <c r="C651">
+        <v>2931.12</v>
+      </c>
+      <c r="D651">
         <v>3829.65</v>
-      </c>
-      <c r="D651">
-        <v>2931.12</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
@@ -9532,10 +9532,10 @@
         <v>106429.84</v>
       </c>
       <c r="C652">
+        <v>2905.37</v>
+      </c>
+      <c r="D652">
         <v>3852.63</v>
-      </c>
-      <c r="D652">
-        <v>2905.37</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
@@ -9546,10 +9546,10 @@
         <v>106190.45</v>
       </c>
       <c r="C653">
+        <v>2928.76</v>
+      </c>
+      <c r="D653">
         <v>3807.69</v>
-      </c>
-      <c r="D653">
-        <v>2928.76</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
@@ -9560,10 +9560,10 @@
         <v>106886.85</v>
       </c>
       <c r="C654">
+        <v>2925.08</v>
+      </c>
+      <c r="D654">
         <v>3804.62</v>
-      </c>
-      <c r="D654">
-        <v>2925.08</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
@@ -9574,10 +9574,10 @@
         <v>105978.27</v>
       </c>
       <c r="C655">
+        <v>2916.14</v>
+      </c>
+      <c r="D655">
         <v>3816.88</v>
-      </c>
-      <c r="D655">
-        <v>2916.14</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
@@ -9588,10 +9588,10 @@
         <v>106930.38</v>
       </c>
       <c r="C656">
+        <v>2914.04</v>
+      </c>
+      <c r="D656">
         <v>3783.17</v>
-      </c>
-      <c r="D656">
-        <v>2914.04</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
@@ -9602,10 +9602,10 @@
         <v>107724.71</v>
       </c>
       <c r="C657">
+        <v>2894.07</v>
+      </c>
+      <c r="D657">
         <v>3806.67</v>
-      </c>
-      <c r="D657">
-        <v>2894.07</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
@@ -9616,10 +9616,10 @@
         <v>105434.2</v>
       </c>
       <c r="C658">
+        <v>2899.06</v>
+      </c>
+      <c r="D658">
         <v>3839.86</v>
-      </c>
-      <c r="D658">
-        <v>2899.06</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
@@ -9630,10 +9630,10 @@
         <v>105543.01</v>
       </c>
       <c r="C659">
+        <v>2890.39</v>
+      </c>
+      <c r="D659">
         <v>3793.9</v>
-      </c>
-      <c r="D659">
-        <v>2890.39</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
@@ -9644,10 +9644,10 @@
         <v>103794.14</v>
       </c>
       <c r="C660">
+        <v>2842.29</v>
+      </c>
+      <c r="D660">
         <v>3841.39</v>
-      </c>
-      <c r="D660">
-        <v>2842.29</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
@@ -9658,10 +9658,10 @@
         <v>104569.58</v>
       </c>
       <c r="C661">
+        <v>2836.25</v>
+      </c>
+      <c r="D661">
         <v>3815.86</v>
-      </c>
-      <c r="D661">
-        <v>2836.25</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
@@ -9672,10 +9672,10 @@
         <v>103871.13</v>
       </c>
       <c r="C662">
+        <v>2834.67</v>
+      </c>
+      <c r="D662">
         <v>3803.09</v>
-      </c>
-      <c r="D662">
-        <v>2834.67</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
@@ -9686,10 +9686,10 @@
         <v>104162.61</v>
       </c>
       <c r="C663">
+        <v>2868.31</v>
+      </c>
+      <c r="D663">
         <v>3782.15</v>
-      </c>
-      <c r="D663">
-        <v>2868.31</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
@@ -9700,10 +9700,10 @@
         <v>108281.82</v>
       </c>
       <c r="C664">
+        <v>2868.31</v>
+      </c>
+      <c r="D664">
         <v>3752.53</v>
-      </c>
-      <c r="D664">
-        <v>2868.31</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
@@ -9714,10 +9714,10 @@
         <v>108303.82</v>
       </c>
       <c r="C665">
+        <v>2859.38</v>
+      </c>
+      <c r="D665">
         <v>3753.55</v>
-      </c>
-      <c r="D665">
-        <v>2859.38</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
@@ -9728,10 +9728,10 @@
         <v>107863.85</v>
       </c>
       <c r="C666">
+        <v>2836.78</v>
+      </c>
+      <c r="D666">
         <v>3743.34</v>
-      </c>
-      <c r="D666">
-        <v>2836.78</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
@@ -9742,10 +9742,10 @@
         <v>107495.38</v>
       </c>
       <c r="C667">
+        <v>2840.98</v>
+      </c>
+      <c r="D667">
         <v>3729.04</v>
-      </c>
-      <c r="D667">
-        <v>2840.98</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
@@ -9756,10 +9756,10 @@
         <v>106857.42</v>
       </c>
       <c r="C668">
+        <v>2826</v>
+      </c>
+      <c r="D668">
         <v>3768.36</v>
-      </c>
-      <c r="D668">
-        <v>2826</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
@@ -9770,10 +9770,10 @@
         <v>105323.03</v>
       </c>
       <c r="C669">
+        <v>2771.6</v>
+      </c>
+      <c r="D669">
         <v>3805.19</v>
-      </c>
-      <c r="D669">
-        <v>2771.6</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
@@ -9784,10 +9784,10 @@
         <v>105152.54</v>
       </c>
       <c r="C670">
+        <v>2770.28</v>
+      </c>
+      <c r="D670">
         <v>3848.15</v>
-      </c>
-      <c r="D670">
-        <v>2770.28</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
@@ -9798,10 +9798,10 @@
         <v>107720.86</v>
       </c>
       <c r="C671">
+        <v>2771.6</v>
+      </c>
+      <c r="D671">
         <v>3860.94</v>
-      </c>
-      <c r="D671">
-        <v>2771.6</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
@@ -9812,10 +9812,10 @@
         <v>106444.95</v>
       </c>
       <c r="C672">
+        <v>2766.08</v>
+      </c>
+      <c r="D672">
         <v>3855.31</v>
-      </c>
-      <c r="D672">
-        <v>2766.08</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
@@ -9826,10 +9826,10 @@
         <v>104602.58</v>
       </c>
       <c r="C673">
+        <v>2754.25</v>
+      </c>
+      <c r="D673">
         <v>3905.43</v>
-      </c>
-      <c r="D673">
-        <v>2754.25</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
@@ -9840,10 +9840,10 @@
         <v>106230.47</v>
       </c>
       <c r="C674">
+        <v>2804.71</v>
+      </c>
+      <c r="D674">
         <v>3842.52</v>
-      </c>
-      <c r="D674">
-        <v>2804.71</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
@@ -9854,10 +9854,10 @@
         <v>105900.49</v>
       </c>
       <c r="C675">
+        <v>2810.49</v>
+      </c>
+      <c r="D675">
         <v>3840.99</v>
-      </c>
-      <c r="D675">
-        <v>2810.49</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
@@ -9868,10 +9868,10 @@
         <v>105339.53</v>
       </c>
       <c r="C676">
+        <v>2773.18</v>
+      </c>
+      <c r="D676">
         <v>3836.39</v>
-      </c>
-      <c r="D676">
-        <v>2773.18</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
@@ -9882,10 +9882,10 @@
         <v>104267.11</v>
       </c>
       <c r="C677">
+        <v>2759.77</v>
+      </c>
+      <c r="D677">
         <v>3823.6</v>
-      </c>
-      <c r="D677">
-        <v>2759.77</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
@@ -9896,10 +9896,10 @@
         <v>104030.62</v>
       </c>
       <c r="C678">
+        <v>2739.27</v>
+      </c>
+      <c r="D678">
         <v>3804.68</v>
-      </c>
-      <c r="D678">
-        <v>2739.27</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
@@ -9910,10 +9910,10 @@
         <v>104294.6</v>
       </c>
       <c r="C679">
+        <v>2722.72</v>
+      </c>
+      <c r="D679">
         <v>3787.8</v>
-      </c>
-      <c r="D679">
-        <v>2722.72</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
@@ -9924,10 +9924,10 @@
         <v>103458.66</v>
       </c>
       <c r="C680">
+        <v>2725.61</v>
+      </c>
+      <c r="D680">
         <v>3800.59</v>
-      </c>
-      <c r="D680">
-        <v>2725.61</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
@@ -9938,10 +9938,10 @@
         <v>103799.64</v>
       </c>
       <c r="C681">
+        <v>2729.29</v>
+      </c>
+      <c r="D681">
         <v>3801.1</v>
-      </c>
-      <c r="D681">
-        <v>2729.29</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
@@ -9952,10 +9952,10 @@
         <v>103563.16</v>
       </c>
       <c r="C682">
+        <v>2724.56</v>
+      </c>
+      <c r="D682">
         <v>3775.01</v>
-      </c>
-      <c r="D682">
-        <v>2724.56</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
@@ -9966,10 +9966,10 @@
         <v>101918.77</v>
       </c>
       <c r="C683">
+        <v>2701.95</v>
+      </c>
+      <c r="D683">
         <v>3803.14</v>
-      </c>
-      <c r="D683">
-        <v>2701.95</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
@@ -9980,10 +9980,10 @@
         <v>101462.3</v>
       </c>
       <c r="C684">
+        <v>2684.61</v>
+      </c>
+      <c r="D684">
         <v>3827.18</v>
-      </c>
-      <c r="D684">
-        <v>2684.61</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
@@ -9994,10 +9994,10 @@
         <v>101676.79</v>
       </c>
       <c r="C685">
+        <v>2666.21</v>
+      </c>
+      <c r="D685">
         <v>3806.72</v>
-      </c>
-      <c r="D685">
-        <v>2666.21</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
@@ -10008,10 +10008,10 @@
         <v>100934.34</v>
       </c>
       <c r="C686">
+        <v>2585.27</v>
+      </c>
+      <c r="D686">
         <v>3849.68</v>
-      </c>
-      <c r="D686">
-        <v>2585.27</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
@@ -10022,10 +10022,10 @@
         <v>100741.86</v>
       </c>
       <c r="C687">
+        <v>2646.5</v>
+      </c>
+      <c r="D687">
         <v>3877.3</v>
-      </c>
-      <c r="D687">
-        <v>2646.5</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
@@ -10036,10 +10036,10 @@
         <v>97018.62</v>
       </c>
       <c r="C688">
+        <v>2643.87</v>
+      </c>
+      <c r="D688">
         <v>3971.92</v>
-      </c>
-      <c r="D688">
-        <v>2643.87</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
@@ -10050,10 +10050,10 @@
         <v>94714.28</v>
       </c>
       <c r="C689">
+        <v>2544.5300000000002</v>
+      </c>
+      <c r="D689">
         <v>3967.32</v>
-      </c>
-      <c r="D689">
-        <v>2544.5300000000002</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
@@ -10064,10 +10064,10 @@
         <v>94301.81</v>
       </c>
       <c r="C690">
+        <v>2539.8000000000002</v>
+      </c>
+      <c r="D690">
         <v>4013.4</v>
-      </c>
-      <c r="D690">
-        <v>2539.8000000000002</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
@@ -10078,10 +10078,10 @@
         <v>94593.29</v>
       </c>
       <c r="C691">
+        <v>2561.35</v>
+      </c>
+      <c r="D691">
         <v>3996.5</v>
-      </c>
-      <c r="D691">
-        <v>2561.35</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
@@ -10092,10 +10092,10 @@
         <v>94994.76</v>
       </c>
       <c r="C692">
+        <v>2603.66</v>
+      </c>
+      <c r="D692">
         <v>3934.55</v>
-      </c>
-      <c r="D692">
-        <v>2603.66</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
@@ -10106,10 +10106,10 @@
         <v>94703.28</v>
       </c>
       <c r="C693">
+        <v>2664.9</v>
+      </c>
+      <c r="D693">
         <v>3990.87</v>
-      </c>
-      <c r="D693">
-        <v>2664.9</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
@@ -10120,10 +10120,10 @@
         <v>96116.68</v>
       </c>
       <c r="C694">
+        <v>2676.99</v>
+      </c>
+      <c r="D694">
         <v>4007.77</v>
-      </c>
-      <c r="D694">
-        <v>2676.99</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
@@ -10134,10 +10134,10 @@
         <v>95819.7</v>
       </c>
       <c r="C695">
+        <v>2687.24</v>
+      </c>
+      <c r="D695">
         <v>3994.46</v>
-      </c>
-      <c r="D695">
-        <v>2687.24</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
